--- a/oci_tools/automation_toolkit/example/CD3-ManagementServices-template.xlsx
+++ b/oci_tools/automation_toolkit/example/CD3-ManagementServices-template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_develop_new\oci_tenancy\SetUpOCI_Via_TF\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -43848,8 +43848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC129"/>
   <sheetViews>
-    <sheetView topLeftCell="K13" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/oci_tools/automation_toolkit/example/CD3-ManagementServices-template.xlsx
+++ b/oci_tools/automation_toolkit/example/CD3-ManagementServices-template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22990" windowHeight="8280" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22990" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -3986,12 +3986,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5924,7 +5924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5949,7 +5949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -5966,15 +5966,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="89.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
@@ -6405,7 +6405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
@@ -6429,20 +6429,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="85.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="24"/>
     </row>
     <row r="2" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
@@ -9133,7 +9133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
@@ -9210,10 +9210,10 @@
       <c r="L2" s="7" t="s">
         <v>655</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="M2" s="21" t="s">
         <v>656</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="N2" s="21" t="s">
         <v>7</v>
       </c>
       <c r="O2" s="12"/>

--- a/oci_tools/automation_toolkit/example/CD3-ManagementServices-template.xlsx
+++ b/oci_tools/automation_toolkit/example/CD3-ManagementServices-template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22990" windowHeight="8280" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22990" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -2062,6 +2062,1595 @@
     <t>createregionsubscription</t>
   </si>
   <si>
+    <t>Alarm Name</t>
+  </si>
+  <si>
+    <t>Is Enabled</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Body</t>
+  </si>
+  <si>
+    <t>Metric Compartment Name</t>
+  </si>
+  <si>
+    <t>Namespace</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>Trigger Delay Minutes</t>
+  </si>
+  <si>
+    <t>Destination Topic Name</t>
+  </si>
+  <si>
+    <t>Message Format</t>
+  </si>
+  <si>
+    <t>Repeat Notification Duration</t>
+  </si>
+  <si>
+    <t>INFO</t>
+  </si>
+  <si>
+    <t>oci_blockstore</t>
+  </si>
+  <si>
+    <t>ONS_OPTIMIZED</t>
+  </si>
+  <si>
+    <t>WARNING</t>
+  </si>
+  <si>
+    <t>oci_cloudevents</t>
+  </si>
+  <si>
+    <t>PRETTY_JSON</t>
+  </si>
+  <si>
+    <t>ERROR</t>
+  </si>
+  <si>
+    <t>oci_compute</t>
+  </si>
+  <si>
+    <t>RAW</t>
+  </si>
+  <si>
+    <t>CRITICAL</t>
+  </si>
+  <si>
+    <t>oci_compute_infrastructure_health</t>
+  </si>
+  <si>
+    <t>oci_computeagent</t>
+  </si>
+  <si>
+    <t>oci_nat_gateway</t>
+  </si>
+  <si>
+    <t>oci_objectstorage</t>
+  </si>
+  <si>
+    <t>oci_oke</t>
+  </si>
+  <si>
+    <t>oci_service_gateway</t>
+  </si>
+  <si>
+    <t>oci_vcn</t>
+  </si>
+  <si>
+    <t>oci_apigateway</t>
+  </si>
+  <si>
+    <t>oracle_apm_rum</t>
+  </si>
+  <si>
+    <t>oracle_apm_synthetics</t>
+  </si>
+  <si>
+    <t>oracle_apm_monitoring</t>
+  </si>
+  <si>
+    <t>oci_bastion</t>
+  </si>
+  <si>
+    <t>oci_big_data_service</t>
+  </si>
+  <si>
+    <t>oci_blockchainplatform</t>
+  </si>
+  <si>
+    <t>oci_instancepools</t>
+  </si>
+  <si>
+    <t>oci_dataintegration</t>
+  </si>
+  <si>
+    <t>oci_datacatalog</t>
+  </si>
+  <si>
+    <t>oci_data_flow</t>
+  </si>
+  <si>
+    <t>oci_autonomous_database</t>
+  </si>
+  <si>
+    <t>oracle_external_database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oracle_oci_database </t>
+  </si>
+  <si>
+    <t>oci_database_migration_service</t>
+  </si>
+  <si>
+    <t>oci_devops_code_repos</t>
+  </si>
+  <si>
+    <t>oci_devops_build</t>
+  </si>
+  <si>
+    <t>oci_devops_deployment</t>
+  </si>
+  <si>
+    <t>oci_digitalassistant</t>
+  </si>
+  <si>
+    <t>oci_dns</t>
+  </si>
+  <si>
+    <t>oci_emaildelivery</t>
+  </si>
+  <si>
+    <t>oci_filestorage</t>
+  </si>
+  <si>
+    <t>oci_faas</t>
+  </si>
+  <si>
+    <t>oci_goldengate</t>
+  </si>
+  <si>
+    <t>oci_healthchecks</t>
+  </si>
+  <si>
+    <t>oci_jms</t>
+  </si>
+  <si>
+    <t>oci_lbaas</t>
+  </si>
+  <si>
+    <t>oci_logging_analytics</t>
+  </si>
+  <si>
+    <t>oci_managementagent</t>
+  </si>
+  <si>
+    <t>oci_mysql_database</t>
+  </si>
+  <si>
+    <t>oci_fastconnect</t>
+  </si>
+  <si>
+    <t>oci_vpn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oci_nosql </t>
+  </si>
+  <si>
+    <t>oci_notification</t>
+  </si>
+  <si>
+    <t>oci_operations_insights</t>
+  </si>
+  <si>
+    <t>oci_osms</t>
+  </si>
+  <si>
+    <t>oci_service_connector_hub</t>
+  </si>
+  <si>
+    <t>oci_streaming</t>
+  </si>
+  <si>
+    <t>oci_kms_keys</t>
+  </si>
+  <si>
+    <t>oci_secrets</t>
+  </si>
+  <si>
+    <t>oci_vss</t>
+  </si>
+  <si>
+    <t>oci_waf</t>
+  </si>
+  <si>
+    <t>VolumeReadThroughput</t>
+  </si>
+  <si>
+    <t>PublishedEvents</t>
+  </si>
+  <si>
+    <t>maintenance_status</t>
+  </si>
+  <si>
+    <t>CpuUtilization</t>
+  </si>
+  <si>
+    <t>BytesToNATgw</t>
+  </si>
+  <si>
+    <t>EnabledOLM</t>
+  </si>
+  <si>
+    <t>APIServerRequestCount</t>
+  </si>
+  <si>
+    <t>packetsToService</t>
+  </si>
+  <si>
+    <t>VnicEgressDropsSecurityList</t>
+  </si>
+  <si>
+    <t>BytesReceived</t>
+  </si>
+  <si>
+    <t>ActiveSessionsPerMin</t>
+  </si>
+  <si>
+    <t>Availability</t>
+  </si>
+  <si>
+    <t>GcAfterOldCommitted</t>
+  </si>
+  <si>
+    <t>activeSessions</t>
+  </si>
+  <si>
+    <t>HdfsSpaceUsed</t>
+  </si>
+  <si>
+    <t>InstancePoolSize</t>
+  </si>
+  <si>
+    <t>health_status</t>
+  </si>
+  <si>
+    <t>NumberOfObjects</t>
+  </si>
+  <si>
+    <t>RunTotalStartUpTime</t>
+  </si>
+  <si>
+    <t>BytesReadInGB</t>
+  </si>
+  <si>
+    <t>ApplyLag</t>
+  </si>
+  <si>
+    <t>AllocatedStorageUtilizationByTablespace</t>
+  </si>
+  <si>
+    <t>CurrentLogons</t>
+  </si>
+  <si>
+    <t>AgentHealth</t>
+  </si>
+  <si>
+    <t>CodeRepositories</t>
+  </si>
+  <si>
+    <t>BuildSuccess</t>
+  </si>
+  <si>
+    <t>TimeInAcceptedState</t>
+  </si>
+  <si>
+    <t>RuntimeRequests</t>
+  </si>
+  <si>
+    <t>DNSQueryCount</t>
+  </si>
+  <si>
+    <t>EmailsAccepted</t>
+  </si>
+  <si>
+    <t>FileSystemReadThroughput</t>
+  </si>
+  <si>
+    <t>FunctionExecutionDuration</t>
+  </si>
+  <si>
+    <t>HTTP.StatusCode</t>
+  </si>
+  <si>
+    <t>Applications</t>
+  </si>
+  <si>
+    <t>ActiveConnections</t>
+  </si>
+  <si>
+    <t>Active Storage Used</t>
+  </si>
+  <si>
+    <t>agentHealthStatus</t>
+  </si>
+  <si>
+    <t>CurrentConnections</t>
+  </si>
+  <si>
+    <t>ConnectionState</t>
+  </si>
+  <si>
+    <t>TunnelState</t>
+  </si>
+  <si>
+    <t>ReadUnits</t>
+  </si>
+  <si>
+    <t>PublishedMessagesSize</t>
+  </si>
+  <si>
+    <t>DataFlowDelayInHrs</t>
+  </si>
+  <si>
+    <t>ActiveManagedInstances</t>
+  </si>
+  <si>
+    <t>BytesReadFromSource</t>
+  </si>
+  <si>
+    <t>PutMessagesLatency.Time</t>
+  </si>
+  <si>
+    <t>EncryptResponseCount</t>
+  </si>
+  <si>
+    <t>GetSecretBundle</t>
+  </si>
+  <si>
+    <t>SecurityVulnerability</t>
+  </si>
+  <si>
+    <t>NumberOfRequests</t>
+  </si>
+  <si>
+    <t>VolumeWriteThroughput</t>
+  </si>
+  <si>
+    <t>DiskBytesRead</t>
+  </si>
+  <si>
+    <t>DropsToNATgw</t>
+  </si>
+  <si>
+    <t>APIServerResponseCount</t>
+  </si>
+  <si>
+    <t>packetsFromService</t>
+  </si>
+  <si>
+    <t>VnicIngressDropsSecurityList</t>
+  </si>
+  <si>
+    <t>BytesSent</t>
+  </si>
+  <si>
+    <t>AjaxCalls</t>
+  </si>
+  <si>
+    <t>AverageBytesPerRequest</t>
+  </si>
+  <si>
+    <t>GcAfterOldUsed</t>
+  </si>
+  <si>
+    <t>HdfsSpaceFree</t>
+  </si>
+  <si>
+    <t>NodesOcpuConsumption</t>
+  </si>
+  <si>
+    <t>ProvisioningInstances</t>
+  </si>
+  <si>
+    <t>instance_status</t>
+  </si>
+  <si>
+    <t>HarvestedObjects</t>
+  </si>
+  <si>
+    <t>RunExecutionTime</t>
+  </si>
+  <si>
+    <t>BytesWrittenInGB</t>
+  </si>
+  <si>
+    <t>BlockChanges</t>
+  </si>
+  <si>
+    <t>ParseCount</t>
+  </si>
+  <si>
+    <t>MigrationHealth</t>
+  </si>
+  <si>
+    <t>CodeRepositoriesPushes</t>
+  </si>
+  <si>
+    <t>BuildFailure</t>
+  </si>
+  <si>
+    <t>DeploymentExecutionTime</t>
+  </si>
+  <si>
+    <t>RuntimeErrorResponses</t>
+  </si>
+  <si>
+    <t>TrafficManagementQueryCount</t>
+  </si>
+  <si>
+    <t>EmailComplaints</t>
+  </si>
+  <si>
+    <t>MatchedEvents</t>
+  </si>
+  <si>
+    <t>FileSystemWriteThroughput</t>
+  </si>
+  <si>
+    <t>FunctionInvocationCount</t>
+  </si>
+  <si>
+    <t>OcpuConsumption</t>
+  </si>
+  <si>
+    <t>PING.isHealthy</t>
+  </si>
+  <si>
+    <t>ApplicationInvocations</t>
+  </si>
+  <si>
+    <t>BackendServers</t>
+  </si>
+  <si>
+    <t>Archival Storage Used</t>
+  </si>
+  <si>
+    <t>diskUsageUsed</t>
+  </si>
+  <si>
+    <t>PacketsReceived</t>
+  </si>
+  <si>
+    <t>WriteUnits</t>
+  </si>
+  <si>
+    <t>PublishedMessagesCount</t>
+  </si>
+  <si>
+    <t>InactiveManagedInstances</t>
+  </si>
+  <si>
+    <t>BytesReadFromTask</t>
+  </si>
+  <si>
+    <t>PutMessagesThroughput.Bytes</t>
+  </si>
+  <si>
+    <t>DecryptResponseCount</t>
+  </si>
+  <si>
+    <t>ListSecretBundleVersions</t>
+  </si>
+  <si>
+    <t>Traffic</t>
+  </si>
+  <si>
+    <t>VolumeReadOps</t>
+  </si>
+  <si>
+    <t>DiskBytesWritten</t>
+  </si>
+  <si>
+    <t>PacketsToNATgw</t>
+  </si>
+  <si>
+    <t>KubernetesNodeCondition</t>
+  </si>
+  <si>
+    <t>bytesToService</t>
+  </si>
+  <si>
+    <t>VnicFromNetworkBytes</t>
+  </si>
+  <si>
+    <t>HttpRequests</t>
+  </si>
+  <si>
+    <t>AjaxDownloadTime</t>
+  </si>
+  <si>
+    <t>AverageLoadTimePerRequest</t>
+  </si>
+  <si>
+    <t>GcAfterYoungCommitted</t>
+  </si>
+  <si>
+    <t>YarnJobsCompleted</t>
+  </si>
+  <si>
+    <t>StorageUtilization</t>
+  </si>
+  <si>
+    <t>RunningInstances</t>
+  </si>
+  <si>
+    <t>HarvestJobTime</t>
+  </si>
+  <si>
+    <t>RunTotalTime</t>
+  </si>
+  <si>
+    <t>TaskRuns</t>
+  </si>
+  <si>
+    <t>ConnectionLatency</t>
+  </si>
+  <si>
+    <t>CpuCount</t>
+  </si>
+  <si>
+    <t>ExecuteCount</t>
+  </si>
+  <si>
+    <t>DbImportProgress</t>
+  </si>
+  <si>
+    <t>CodeRepositoriesPulls</t>
+  </si>
+  <si>
+    <t>BuildRunExecutionTime</t>
+  </si>
+  <si>
+    <t>StageTimeOut</t>
+  </si>
+  <si>
+    <t>CustomComponentErrorResponses</t>
+  </si>
+  <si>
+    <t>EmailsHardBounced</t>
+  </si>
+  <si>
+    <t>DeliverySucceedEvents</t>
+  </si>
+  <si>
+    <t>FileSystemReadRequestsbySize</t>
+  </si>
+  <si>
+    <t>FunctionResponseCount</t>
+  </si>
+  <si>
+    <t>MemoryUtilization</t>
+  </si>
+  <si>
+    <t>HTTP.DNSLookupTime</t>
+  </si>
+  <si>
+    <t>ManagedInstances</t>
+  </si>
+  <si>
+    <t>BackendTimeouts</t>
+  </si>
+  <si>
+    <t>Processing Errors</t>
+  </si>
+  <si>
+    <t>diskUsageFree</t>
+  </si>
+  <si>
+    <t>Statements</t>
+  </si>
+  <si>
+    <t>StorageGB</t>
+  </si>
+  <si>
+    <t>DeliveredMessagesSize</t>
+  </si>
+  <si>
+    <t>UnsecuredManagedInstances</t>
+  </si>
+  <si>
+    <t>BytesWrittenToTarget</t>
+  </si>
+  <si>
+    <t>PutMessagesThroughput.Count</t>
+  </si>
+  <si>
+    <t>GenerateDataEncryptionKeyResponseCount</t>
+  </si>
+  <si>
+    <t>CreateSecret</t>
+  </si>
+  <si>
+    <t>Bandwidth</t>
+  </si>
+  <si>
+    <t>VolumeWriteOps</t>
+  </si>
+  <si>
+    <t>DiskIopsRead</t>
+  </si>
+  <si>
+    <t>NodeState</t>
+  </si>
+  <si>
+    <t>bytesFromService</t>
+  </si>
+  <si>
+    <t>VnicFromNetworkPackets</t>
+  </si>
+  <si>
+    <t>HttpResponses</t>
+  </si>
+  <si>
+    <t>AjaxErrors</t>
+  </si>
+  <si>
+    <t>ConnectCount</t>
+  </si>
+  <si>
+    <t>GcAfterYoungUsed</t>
+  </si>
+  <si>
+    <t>SparkJobsCompleted</t>
+  </si>
+  <si>
+    <t>CommitsProcessedByOrderer</t>
+  </si>
+  <si>
+    <t>TerminatedInstances</t>
+  </si>
+  <si>
+    <t>HarvestJobErrorCount</t>
+  </si>
+  <si>
+    <t>RunSucceeded</t>
+  </si>
+  <si>
+    <t>PipelineRunDurationInHours</t>
+  </si>
+  <si>
+    <t>CpuTime</t>
+  </si>
+  <si>
+    <t>TransactionCount</t>
+  </si>
+  <si>
+    <t>DbExportProgress</t>
+  </si>
+  <si>
+    <t>CodeRepositorySize</t>
+  </si>
+  <si>
+    <t>StageExecutionTime</t>
+  </si>
+  <si>
+    <t>DeploymentFailure</t>
+  </si>
+  <si>
+    <t>CustomComponentRejectedResponses</t>
+  </si>
+  <si>
+    <t>EmailsSoftBounced</t>
+  </si>
+  <si>
+    <t>DeliveryFailedEvents</t>
+  </si>
+  <si>
+    <t>FileSystemWriteRequestsbySize</t>
+  </si>
+  <si>
+    <t>DeploymentHealth</t>
+  </si>
+  <si>
+    <t>HTTP.TCPConnectTime.Full</t>
+  </si>
+  <si>
+    <t>JavaRuntimeVendors</t>
+  </si>
+  <si>
+    <t>Agent Data Upload Size</t>
+  </si>
+  <si>
+    <t>diskUsageInstallSize</t>
+  </si>
+  <si>
+    <t>StatementLatency</t>
+  </si>
+  <si>
+    <t>PacketsSent</t>
+  </si>
+  <si>
+    <t>ReadThrottleCount</t>
+  </si>
+  <si>
+    <t>FailedMessagesSize</t>
+  </si>
+  <si>
+    <t>UpdatableManagedInstances</t>
+  </si>
+  <si>
+    <t>BytesWrittenToTask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PutMessagesThrottling.Count	</t>
+  </si>
+  <si>
+    <t>UpdateSecret</t>
+  </si>
+  <si>
+    <t>NumberOfRequestsDetected</t>
+  </si>
+  <si>
+    <t>InstanceMetadataRequests</t>
+  </si>
+  <si>
+    <t>DiskIopsWritten</t>
+  </si>
+  <si>
+    <t>UnschedulablePods</t>
+  </si>
+  <si>
+    <t>sgwDropsFromService</t>
+  </si>
+  <si>
+    <t>VnicToNetworkBytes</t>
+  </si>
+  <si>
+    <t>BackendHttpResponses</t>
+  </si>
+  <si>
+    <t>AjaxFirstByteTime</t>
+  </si>
+  <si>
+    <t>ConnectTime</t>
+  </si>
+  <si>
+    <t>GcOldTotalCount</t>
+  </si>
+  <si>
+    <t>DiskUtilization</t>
+  </si>
+  <si>
+    <t>EndorsementsProcessedByPeer</t>
+  </si>
+  <si>
+    <t>RunFailed</t>
+  </si>
+  <si>
+    <t>WorkspaceUsageInHours</t>
+  </si>
+  <si>
+    <t>UserCalls</t>
+  </si>
+  <si>
+    <t>ReplicationLatency</t>
+  </si>
+  <si>
+    <t>EmailsRelayed</t>
+  </si>
+  <si>
+    <t>FileSystemReadAverageLatencybySize</t>
+  </si>
+  <si>
+    <t>DeploymentInboundLag</t>
+  </si>
+  <si>
+    <t>HTTP.RequestTime</t>
+  </si>
+  <si>
+    <t>JavaRuntimeVersions</t>
+  </si>
+  <si>
+    <t>Agent Data Upload Errors</t>
+  </si>
+  <si>
+    <t>uploadBufferPctusedofmaxbuffer</t>
+  </si>
+  <si>
+    <t>CPUUtilization</t>
+  </si>
+  <si>
+    <t>WriteThrottleCount</t>
+  </si>
+  <si>
+    <t>DeliveredMessagesCount</t>
+  </si>
+  <si>
+    <t>DataFreshness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PutMessagesSuccess.Count	</t>
+  </si>
+  <si>
+    <t>LoadAverage</t>
+  </si>
+  <si>
+    <t>sgwDropsToService</t>
+  </si>
+  <si>
+    <t>VnicToNetworkPackets</t>
+  </si>
+  <si>
+    <t>Latency</t>
+  </si>
+  <si>
+    <t>AjaxInitTime</t>
+  </si>
+  <si>
+    <t>DNSLookups</t>
+  </si>
+  <si>
+    <t>GcOldTotalTime</t>
+  </si>
+  <si>
+    <t>CommitsProcessedByPeer</t>
+  </si>
+  <si>
+    <t>ReplicationThroughput</t>
+  </si>
+  <si>
+    <t>FileSystemWriteAverageLatencybySize</t>
+  </si>
+  <si>
+    <t>DeploymentOutboundLag</t>
+  </si>
+  <si>
+    <t>HTTP.ResponseTime</t>
+  </si>
+  <si>
+    <t>ClosedConnections</t>
+  </si>
+  <si>
+    <t>usageCpu</t>
+  </si>
+  <si>
+    <t>PacketsError</t>
+  </si>
+  <si>
+    <t>StorageThrottleCount</t>
+  </si>
+  <si>
+    <t>FailedMessagesCount</t>
+  </si>
+  <si>
+    <t>ErrorsAtSource</t>
+  </si>
+  <si>
+    <t>PutMessagesFault.Count</t>
+  </si>
+  <si>
+    <t>MemoryAllocationStalls</t>
+  </si>
+  <si>
+    <t>VnicIngressDropsThrottle</t>
+  </si>
+  <si>
+    <t>IntegrationLatency</t>
+  </si>
+  <si>
+    <t>AjaxResponseTime</t>
+  </si>
+  <si>
+    <t>DNSTime</t>
+  </si>
+  <si>
+    <t>GcYoungTotalCount</t>
+  </si>
+  <si>
+    <t>NetworkBytesIn</t>
+  </si>
+  <si>
+    <t>DiskReadBytes</t>
+  </si>
+  <si>
+    <t>DBBlockChanges</t>
+  </si>
+  <si>
+    <t>DBTime</t>
+  </si>
+  <si>
+    <t>MetadataRequestAverageLatency</t>
+  </si>
+  <si>
+    <t>HTTP.TotalDuration</t>
+  </si>
+  <si>
+    <t>usageRss</t>
+  </si>
+  <si>
+    <t>NetworkReceiveBytes</t>
+  </si>
+  <si>
+    <t>ErrorsAtTarget</t>
+  </si>
+  <si>
+    <t>PutMessagesRecords.Count</t>
+  </si>
+  <si>
+    <t>VnicEgressDropsThrottle</t>
+  </si>
+  <si>
+    <t>InternalLatency</t>
+  </si>
+  <si>
+    <t>ApdexScore</t>
+  </si>
+  <si>
+    <t>Failure</t>
+  </si>
+  <si>
+    <t>GcYoungTotalTime</t>
+  </si>
+  <si>
+    <t>NetworkBytesOut</t>
+  </si>
+  <si>
+    <t>DiskWriteBytes</t>
+  </si>
+  <si>
+    <t>StorageUtilizationByTablespace</t>
+  </si>
+  <si>
+    <t>MetadataIOPS</t>
+  </si>
+  <si>
+    <t>PING.Latency</t>
+  </si>
+  <si>
+    <t>NetworkTransmitBytes</t>
+  </si>
+  <si>
+    <t>ErrorsAtTask</t>
+  </si>
+  <si>
+    <t>GetMessagesLatency.Time</t>
+  </si>
+  <si>
+    <t>NetworksBytesIn</t>
+  </si>
+  <si>
+    <t>VnicIngressDropsConntrackFull</t>
+  </si>
+  <si>
+    <t>ResponseCacheAction</t>
+  </si>
+  <si>
+    <t>HTTP4xxFailureCount</t>
+  </si>
+  <si>
+    <t>HeapCommitted</t>
+  </si>
+  <si>
+    <t>FileSystemUtilization</t>
+  </si>
+  <si>
+    <t>IOPS</t>
+  </si>
+  <si>
+    <t>FileSystemUsage</t>
+  </si>
+  <si>
+    <t>HttpResponses200</t>
+  </si>
+  <si>
+    <t>DbVolumeReadOperations</t>
+  </si>
+  <si>
+    <t>LatencyAtSource</t>
+  </si>
+  <si>
+    <t>GetMessagesThroughput.Bytes</t>
+  </si>
+  <si>
+    <t>NetworksBytesOut</t>
+  </si>
+  <si>
+    <t>VnicEgressDropsConntrackFull</t>
+  </si>
+  <si>
+    <t>ResponseCacheAvailability</t>
+  </si>
+  <si>
+    <t>HTTP5xxFailureCount</t>
+  </si>
+  <si>
+    <t>HeapUsed</t>
+  </si>
+  <si>
+    <t>GcCpuUtilization</t>
+  </si>
+  <si>
+    <t>FailedConnections</t>
+  </si>
+  <si>
+    <t>IOThroughput</t>
+  </si>
+  <si>
+    <t>StorageUsed</t>
+  </si>
+  <si>
+    <t>MountTargetReadThroughput</t>
+  </si>
+  <si>
+    <t>HttpResponses2xx</t>
+  </si>
+  <si>
+    <t>DbVolumeWriteOperations</t>
+  </si>
+  <si>
+    <t>LatencyAtTarget</t>
+  </si>
+  <si>
+    <t>GetMessagesThroughput.Count</t>
+  </si>
+  <si>
+    <t>VnicConntrackUtilPercent</t>
+  </si>
+  <si>
+    <t>ResponseCacheLatency</t>
+  </si>
+  <si>
+    <t>NonHeapCommitted</t>
+  </si>
+  <si>
+    <t>FailedLogons</t>
+  </si>
+  <si>
+    <t>LogicalBlocksRead</t>
+  </si>
+  <si>
+    <t>StorageUsedByTablespace</t>
+  </si>
+  <si>
+    <t>MountTargetWriteThroughput</t>
+  </si>
+  <si>
+    <t>HttpResponses3xx</t>
+  </si>
+  <si>
+    <t>DbVolumeReadBytes</t>
+  </si>
+  <si>
+    <t>LatencyAtTask</t>
+  </si>
+  <si>
+    <t>GetMessagesThrottling.Count</t>
+  </si>
+  <si>
+    <t>VnicConntrackIsFull</t>
+  </si>
+  <si>
+    <t>LatencyDeviation</t>
+  </si>
+  <si>
+    <t>NonHeapUsed</t>
+  </si>
+  <si>
+    <t>HardParseCount</t>
+  </si>
+  <si>
+    <t>MaxTablespaceSize</t>
+  </si>
+  <si>
+    <t>StorageAllocated</t>
+  </si>
+  <si>
+    <t>MountTargetConnections</t>
+  </si>
+  <si>
+    <t>HttpResponses4xx</t>
+  </si>
+  <si>
+    <t>DbVolumeWriteBytes</t>
+  </si>
+  <si>
+    <t>MessagesReadFromSource</t>
+  </si>
+  <si>
+    <t>GetMessagesSuccess.Count</t>
+  </si>
+  <si>
+    <t>FrustratedPageViews</t>
+  </si>
+  <si>
+    <t>MonitorExecutionTime</t>
+  </si>
+  <si>
+    <t>ProcessCpuLoad</t>
+  </si>
+  <si>
+    <t>MemoryUsage</t>
+  </si>
+  <si>
+    <t>StorageAllocatedByTablespace</t>
+  </si>
+  <si>
+    <t>MountTargetHealth</t>
+  </si>
+  <si>
+    <t>HttpResponses502</t>
+  </si>
+  <si>
+    <t>DbVolumeUtilization</t>
+  </si>
+  <si>
+    <t>MessagesReadFromTask</t>
+  </si>
+  <si>
+    <t>GetMessagesFault.Count</t>
+  </si>
+  <si>
+    <t>PageClicks</t>
+  </si>
+  <si>
+    <t>MonitorLoadTime</t>
+  </si>
+  <si>
+    <t>ProcessCpuTime</t>
+  </si>
+  <si>
+    <t>MonitoringStatus</t>
+  </si>
+  <si>
+    <t>OcpusAllocated</t>
+  </si>
+  <si>
+    <t>HttpResponses504</t>
+  </si>
+  <si>
+    <t>HeatWaveHealth</t>
+  </si>
+  <si>
+    <t>MessagesWrittenToTask</t>
+  </si>
+  <si>
+    <t>PageDownloadTime</t>
+  </si>
+  <si>
+    <t>PacketLossPercentage</t>
+  </si>
+  <si>
+    <t>SystemCpuLoad</t>
+  </si>
+  <si>
+    <t>HttpResponses5xx</t>
+  </si>
+  <si>
+    <t>HeatWaveStatements</t>
+  </si>
+  <si>
+    <t>MessagesWrittenToTarget</t>
+  </si>
+  <si>
+    <t>PageFirstByteTime</t>
+  </si>
+  <si>
+    <t>RequestCount</t>
+  </si>
+  <si>
+    <t>SystemPhysicalMemoryFree</t>
+  </si>
+  <si>
+    <t>LogicalReads</t>
+  </si>
+  <si>
+    <t>ParsesByType</t>
+  </si>
+  <si>
+    <t>InvalidHeaderResponses</t>
+  </si>
+  <si>
+    <t>HeatWaveDataLoadProgress</t>
+  </si>
+  <si>
+    <t>NumberofFunctionInvocations</t>
+  </si>
+  <si>
+    <t>PageInitTime</t>
+  </si>
+  <si>
+    <t>SSLTime</t>
+  </si>
+  <si>
+    <t>SystemSwapFree</t>
+  </si>
+  <si>
+    <t>OCPUsAllocated</t>
+  </si>
+  <si>
+    <t>RedoSize</t>
+  </si>
+  <si>
+    <t>DbmgmtJobExecutionsCount</t>
+  </si>
+  <si>
+    <t>KeepAliveConnections</t>
+  </si>
+  <si>
+    <t>BackupSize</t>
+  </si>
+  <si>
+    <t>ServiceConnectorHubErrors</t>
+  </si>
+  <si>
+    <t>PageInteractiveTime</t>
+  </si>
+  <si>
+    <t>TotalRequestFailures</t>
+  </si>
+  <si>
+    <t>SystemVirtualMemoryCommitted</t>
+  </si>
+  <si>
+    <t>WaitTime</t>
+  </si>
+  <si>
+    <t>ResponseTimeFirstByte</t>
+  </si>
+  <si>
+    <t>BackupTime</t>
+  </si>
+  <si>
+    <t>PageRenderTime</t>
+  </si>
+  <si>
+    <t>TotalSteps</t>
+  </si>
+  <si>
+    <t>ThreadBlockedCount</t>
+  </si>
+  <si>
+    <t>TransactionsByStatus</t>
+  </si>
+  <si>
+    <t>ResponseTimeHttpHeader</t>
+  </si>
+  <si>
+    <t>ChannelLag</t>
+  </si>
+  <si>
+    <t>PageResponseTime</t>
+  </si>
+  <si>
+    <t>CertificateExpiry</t>
+  </si>
+  <si>
+    <t>ThreadCount</t>
+  </si>
+  <si>
+    <t>ParseFailureCount</t>
+  </si>
+  <si>
+    <t>UnhealthyBackendServers</t>
+  </si>
+  <si>
+    <t>ChannelFailure</t>
+  </si>
+  <si>
+    <t>PageViews</t>
+  </si>
+  <si>
+    <t>ThreadDeadlockCount</t>
+  </si>
+  <si>
+    <t>PhysicalReads</t>
+  </si>
+  <si>
+    <t>AcceptedConnections</t>
+  </si>
+  <si>
+    <t>RedirectTime</t>
+  </si>
+  <si>
+    <t>ThreadTimedWaitingCount</t>
+  </si>
+  <si>
+    <t>PhysicalReadTotalBytes</t>
+  </si>
+  <si>
+    <t>AcceptedSSLHandshake</t>
+  </si>
+  <si>
+    <t>SatisfiedPageViews</t>
+  </si>
+  <si>
+    <t>ThreadWaitingCount</t>
+  </si>
+  <si>
+    <t>PhysicalWrites</t>
+  </si>
+  <si>
+    <t>ScriptErrors</t>
+  </si>
+  <si>
+    <t>TotalTraceCount</t>
+  </si>
+  <si>
+    <t>PhysicalWriteTotalBytes</t>
+  </si>
+  <si>
+    <t>ActiveSSLConnections</t>
+  </si>
+  <si>
+    <t>TotalSpanCount</t>
+  </si>
+  <si>
+    <t>QueryLatency</t>
+  </si>
+  <si>
+    <t>CPUTime</t>
+  </si>
+  <si>
+    <t>ToleratingPageViews</t>
+  </si>
+  <si>
+    <t>TotalTraceSampledCount</t>
+  </si>
+  <si>
+    <t>QueuedStatements</t>
+  </si>
+  <si>
+    <t>TotalSpanSampledCount</t>
+  </si>
+  <si>
+    <t>RedoGenerated</t>
+  </si>
+  <si>
+    <t>FailedSSLClientCertVerify</t>
+  </si>
+  <si>
+    <t>Uptime</t>
+  </si>
+  <si>
+    <t>AvgGCCRBlockReceiveTime</t>
+  </si>
+  <si>
+    <t>FailedSSLHandshake</t>
+  </si>
+  <si>
+    <t>WeblogicStuckThreadCount</t>
+  </si>
+  <si>
+    <t>RunningStatements</t>
+  </si>
+  <si>
+    <t>GCCRBlocksReceived</t>
+  </si>
+  <si>
+    <t>HandledConnections</t>
+  </si>
+  <si>
+    <t>Sessions</t>
+  </si>
+  <si>
+    <t>InterconnectTraffic</t>
+  </si>
+  <si>
+    <t>SQLNetBytesFromClient</t>
+  </si>
+  <si>
+    <t>PeakBandwidth</t>
+  </si>
+  <si>
+    <t>SQLNetBytesFromDBLink</t>
+  </si>
+  <si>
+    <t>HttpResponses 200</t>
+  </si>
+  <si>
+    <t>SQLNetBytesToClient</t>
+  </si>
+  <si>
+    <t>HttpResponses 2xx</t>
+  </si>
+  <si>
+    <t>SQLNetBytesToDBLink</t>
+  </si>
+  <si>
+    <t>HttpResponses 3xx</t>
+  </si>
+  <si>
+    <t>HttpResponses 4xx</t>
+  </si>
+  <si>
+    <t>HttpResponses 502</t>
+  </si>
+  <si>
+    <t>HttpResponses 504</t>
+  </si>
+  <si>
+    <t>HttpResponses 5xx</t>
+  </si>
+  <si>
+    <t>TransportLag</t>
+  </si>
+  <si>
+    <t>UserCommits</t>
+  </si>
+  <si>
+    <t>UserRollbacks</t>
+  </si>
+  <si>
+    <t>TunnelState[1m].mean() == 0</t>
+  </si>
+  <si>
+    <t>PT5M</t>
+  </si>
+  <si>
+    <t>ConnectionState[1m].mean() == 0</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>vpn-status-alarm</t>
+  </si>
+  <si>
+    <t>fast-connect-status-alarm</t>
+  </si>
+  <si>
+    <t>updatenetworksecuritygroupsecurityrules</t>
+  </si>
+  <si>
+    <t>notify-on-iam-changes-rule</t>
+  </si>
+  <si>
+    <t>notify-on-network-changes-rule</t>
+  </si>
+  <si>
+    <t>events rule to detect when networking resources are created, updated or deleted.</t>
+  </si>
+  <si>
+    <t>events rule to detect when IAM resources are created, updated or deleted.</t>
+  </si>
+  <si>
+    <t>Topic for storage performance related notifications.</t>
+  </si>
+  <si>
+    <t>Topic for compute performance related notifications.</t>
+  </si>
+  <si>
+    <t>Topic for database performance related notifications.</t>
+  </si>
+  <si>
+    <t>StorageTopic</t>
+  </si>
+  <si>
+    <t>ComputeTopic</t>
+  </si>
+  <si>
+    <t>DatabaseTopic</t>
+  </si>
+  <si>
+    <t>health_status[1m].count() == 1</t>
+  </si>
+  <si>
+    <t>instance_status[1m].count() == 1</t>
+  </si>
+  <si>
+    <t>CpuUtilization[1m].mean() &gt; 80</t>
+  </si>
+  <si>
+    <t>MemoryUtilization[1m].mean() &gt; 80</t>
+  </si>
+  <si>
+    <t>maintenance_status[1m].count() == 1</t>
+  </si>
+  <si>
+    <t>StorageUtilization[1m].mean() &gt; 80</t>
+  </si>
+  <si>
+    <t>AppDev</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>bare-metal-unhealthy-alarm</t>
+  </si>
+  <si>
+    <t>instance-status-alarm</t>
+  </si>
+  <si>
+    <t>high-cpu-alarm</t>
+  </si>
+  <si>
+    <t>high-memory-alarm</t>
+  </si>
+  <si>
+    <t>vm-maintenance-alarm</t>
+  </si>
+  <si>
+    <t>adb-storage-alarm</t>
+  </si>
+  <si>
+    <t>adb-cpu-alarm</t>
+  </si>
+  <si>
+    <t>Topic for budget related notifications.</t>
+  </si>
+  <si>
+    <t>BudgetTopic</t>
+  </si>
+  <si>
+    <t>autonomous.exadata.infrastructure.critical</t>
+  </si>
+  <si>
+    <t>cloudexadatainfrastructure.critical</t>
+  </si>
+  <si>
+    <t>autonomous.database.critical</t>
+  </si>
+  <si>
+    <t>dbsystem.critical</t>
+  </si>
+  <si>
+    <t>events rule to detect when cost resources such as budgets and financial tracking constructs are created, updated or deleted.</t>
+  </si>
+  <si>
+    <t>events rule to detect when compute related resources are created, updated or deleted.</t>
+  </si>
+  <si>
+    <t>events rule to detect when storage resources are created, updated or deleted.</t>
+  </si>
+  <si>
+    <t>events rule to detect when database resources are created, updated or deleted in the database compartment.</t>
+  </si>
+  <si>
+    <t>notify-on-budget-changes-rule</t>
+  </si>
+  <si>
+    <t>notify-on-compute-changes-rule</t>
+  </si>
+  <si>
+    <t>notify-on-storage-changes-rule</t>
+  </si>
+  <si>
+    <t>notify-on-database-changes-rule</t>
+  </si>
+  <si>
+    <t># Rows after &lt;END&gt; will not be processed (Sample data is provided  for reference after &lt;END&gt;); 
+Columns: Region, Compartment Name, Alarm Name, Is Enabled, Metric Compartment Name, Namespace, Query, Destination Topic Name and Severity are mandatory.
+"Defined Tags" - Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
+                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
+                                Example: Operations.CostCenter=01;Users.Name=user01</t>
+  </si>
+  <si>
+    <t># Rows after &lt;END&gt; will not be processed (Sample data is provided  for reference after &lt;END&gt;); 
+Columns: Region, Compartment Name, Event Name, Action Type, Action is Enabled, Service Name, Resources, Event is Enabled and Topic are mandatory.
+"Resource" - Choose the appropriate option from the dropdown, populated based on the 'Service Name' selected.
+"Defined Tags" - Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
+                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
+                                Example: Operations.CostCenter=01;Users.Name=user01</t>
+  </si>
+  <si>
+    <t># Rows after &lt;END&gt; will not be processed (Sample data is provided  for reference after &lt;END&gt;); 
+Columns: Region, Compartment Name, Topic, Protocol and Endpoint are mandatory.
+"Protocol" - Only EMAIL is supported currently for creation. Export supports Functions and Email.
+"Defined Tags" - Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
+                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
+                                Example: Operations.CostCenter=01;Users.Name=user01</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">
 </t>
@@ -2117,7 +3706,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">v8.0.2
+      <t xml:space="preserve">v9
 </t>
     </r>
     <r>
@@ -2128,1598 +3717,9 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Added new sheets - DRGv2 and DRGRouteRulesinOCI
+      <t xml:space="preserve">Added Alarms Tab
 </t>
     </r>
-  </si>
-  <si>
-    <t>Alarm Name</t>
-  </si>
-  <si>
-    <t>Is Enabled</t>
-  </si>
-  <si>
-    <t>Severity</t>
-  </si>
-  <si>
-    <t>Body</t>
-  </si>
-  <si>
-    <t>Metric Compartment Name</t>
-  </si>
-  <si>
-    <t>Namespace</t>
-  </si>
-  <si>
-    <t>Query</t>
-  </si>
-  <si>
-    <t>Trigger Delay Minutes</t>
-  </si>
-  <si>
-    <t>Destination Topic Name</t>
-  </si>
-  <si>
-    <t>Message Format</t>
-  </si>
-  <si>
-    <t>Repeat Notification Duration</t>
-  </si>
-  <si>
-    <t>INFO</t>
-  </si>
-  <si>
-    <t>oci_blockstore</t>
-  </si>
-  <si>
-    <t>ONS_OPTIMIZED</t>
-  </si>
-  <si>
-    <t>WARNING</t>
-  </si>
-  <si>
-    <t>oci_cloudevents</t>
-  </si>
-  <si>
-    <t>PRETTY_JSON</t>
-  </si>
-  <si>
-    <t>ERROR</t>
-  </si>
-  <si>
-    <t>oci_compute</t>
-  </si>
-  <si>
-    <t>RAW</t>
-  </si>
-  <si>
-    <t>CRITICAL</t>
-  </si>
-  <si>
-    <t>oci_compute_infrastructure_health</t>
-  </si>
-  <si>
-    <t>oci_computeagent</t>
-  </si>
-  <si>
-    <t>oci_nat_gateway</t>
-  </si>
-  <si>
-    <t>oci_objectstorage</t>
-  </si>
-  <si>
-    <t>oci_oke</t>
-  </si>
-  <si>
-    <t>oci_service_gateway</t>
-  </si>
-  <si>
-    <t>oci_vcn</t>
-  </si>
-  <si>
-    <t>oci_apigateway</t>
-  </si>
-  <si>
-    <t>oracle_apm_rum</t>
-  </si>
-  <si>
-    <t>oracle_apm_synthetics</t>
-  </si>
-  <si>
-    <t>oracle_apm_monitoring</t>
-  </si>
-  <si>
-    <t>oci_bastion</t>
-  </si>
-  <si>
-    <t>oci_big_data_service</t>
-  </si>
-  <si>
-    <t>oci_blockchainplatform</t>
-  </si>
-  <si>
-    <t>oci_instancepools</t>
-  </si>
-  <si>
-    <t>oci_dataintegration</t>
-  </si>
-  <si>
-    <t>oci_datacatalog</t>
-  </si>
-  <si>
-    <t>oci_data_flow</t>
-  </si>
-  <si>
-    <t>oci_autonomous_database</t>
-  </si>
-  <si>
-    <t>oracle_external_database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oracle_oci_database </t>
-  </si>
-  <si>
-    <t>oci_database_migration_service</t>
-  </si>
-  <si>
-    <t>oci_devops_code_repos</t>
-  </si>
-  <si>
-    <t>oci_devops_build</t>
-  </si>
-  <si>
-    <t>oci_devops_deployment</t>
-  </si>
-  <si>
-    <t>oci_digitalassistant</t>
-  </si>
-  <si>
-    <t>oci_dns</t>
-  </si>
-  <si>
-    <t>oci_emaildelivery</t>
-  </si>
-  <si>
-    <t>oci_filestorage</t>
-  </si>
-  <si>
-    <t>oci_faas</t>
-  </si>
-  <si>
-    <t>oci_goldengate</t>
-  </si>
-  <si>
-    <t>oci_healthchecks</t>
-  </si>
-  <si>
-    <t>oci_jms</t>
-  </si>
-  <si>
-    <t>oci_lbaas</t>
-  </si>
-  <si>
-    <t>oci_logging_analytics</t>
-  </si>
-  <si>
-    <t>oci_managementagent</t>
-  </si>
-  <si>
-    <t>oci_mysql_database</t>
-  </si>
-  <si>
-    <t>oci_fastconnect</t>
-  </si>
-  <si>
-    <t>oci_vpn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oci_nosql </t>
-  </si>
-  <si>
-    <t>oci_notification</t>
-  </si>
-  <si>
-    <t>oci_operations_insights</t>
-  </si>
-  <si>
-    <t>oci_osms</t>
-  </si>
-  <si>
-    <t>oci_service_connector_hub</t>
-  </si>
-  <si>
-    <t>oci_streaming</t>
-  </si>
-  <si>
-    <t>oci_kms_keys</t>
-  </si>
-  <si>
-    <t>oci_secrets</t>
-  </si>
-  <si>
-    <t>oci_vss</t>
-  </si>
-  <si>
-    <t>oci_waf</t>
-  </si>
-  <si>
-    <t>VolumeReadThroughput</t>
-  </si>
-  <si>
-    <t>PublishedEvents</t>
-  </si>
-  <si>
-    <t>maintenance_status</t>
-  </si>
-  <si>
-    <t>CpuUtilization</t>
-  </si>
-  <si>
-    <t>BytesToNATgw</t>
-  </si>
-  <si>
-    <t>EnabledOLM</t>
-  </si>
-  <si>
-    <t>APIServerRequestCount</t>
-  </si>
-  <si>
-    <t>packetsToService</t>
-  </si>
-  <si>
-    <t>VnicEgressDropsSecurityList</t>
-  </si>
-  <si>
-    <t>BytesReceived</t>
-  </si>
-  <si>
-    <t>ActiveSessionsPerMin</t>
-  </si>
-  <si>
-    <t>Availability</t>
-  </si>
-  <si>
-    <t>GcAfterOldCommitted</t>
-  </si>
-  <si>
-    <t>activeSessions</t>
-  </si>
-  <si>
-    <t>HdfsSpaceUsed</t>
-  </si>
-  <si>
-    <t>InstancePoolSize</t>
-  </si>
-  <si>
-    <t>health_status</t>
-  </si>
-  <si>
-    <t>NumberOfObjects</t>
-  </si>
-  <si>
-    <t>RunTotalStartUpTime</t>
-  </si>
-  <si>
-    <t>BytesReadInGB</t>
-  </si>
-  <si>
-    <t>ApplyLag</t>
-  </si>
-  <si>
-    <t>AllocatedStorageUtilizationByTablespace</t>
-  </si>
-  <si>
-    <t>CurrentLogons</t>
-  </si>
-  <si>
-    <t>AgentHealth</t>
-  </si>
-  <si>
-    <t>CodeRepositories</t>
-  </si>
-  <si>
-    <t>BuildSuccess</t>
-  </si>
-  <si>
-    <t>TimeInAcceptedState</t>
-  </si>
-  <si>
-    <t>RuntimeRequests</t>
-  </si>
-  <si>
-    <t>DNSQueryCount</t>
-  </si>
-  <si>
-    <t>EmailsAccepted</t>
-  </si>
-  <si>
-    <t>FileSystemReadThroughput</t>
-  </si>
-  <si>
-    <t>FunctionExecutionDuration</t>
-  </si>
-  <si>
-    <t>HTTP.StatusCode</t>
-  </si>
-  <si>
-    <t>Applications</t>
-  </si>
-  <si>
-    <t>ActiveConnections</t>
-  </si>
-  <si>
-    <t>Active Storage Used</t>
-  </si>
-  <si>
-    <t>agentHealthStatus</t>
-  </si>
-  <si>
-    <t>CurrentConnections</t>
-  </si>
-  <si>
-    <t>ConnectionState</t>
-  </si>
-  <si>
-    <t>TunnelState</t>
-  </si>
-  <si>
-    <t>ReadUnits</t>
-  </si>
-  <si>
-    <t>PublishedMessagesSize</t>
-  </si>
-  <si>
-    <t>DataFlowDelayInHrs</t>
-  </si>
-  <si>
-    <t>ActiveManagedInstances</t>
-  </si>
-  <si>
-    <t>BytesReadFromSource</t>
-  </si>
-  <si>
-    <t>PutMessagesLatency.Time</t>
-  </si>
-  <si>
-    <t>EncryptResponseCount</t>
-  </si>
-  <si>
-    <t>GetSecretBundle</t>
-  </si>
-  <si>
-    <t>SecurityVulnerability</t>
-  </si>
-  <si>
-    <t>NumberOfRequests</t>
-  </si>
-  <si>
-    <t>VolumeWriteThroughput</t>
-  </si>
-  <si>
-    <t>DiskBytesRead</t>
-  </si>
-  <si>
-    <t>DropsToNATgw</t>
-  </si>
-  <si>
-    <t>APIServerResponseCount</t>
-  </si>
-  <si>
-    <t>packetsFromService</t>
-  </si>
-  <si>
-    <t>VnicIngressDropsSecurityList</t>
-  </si>
-  <si>
-    <t>BytesSent</t>
-  </si>
-  <si>
-    <t>AjaxCalls</t>
-  </si>
-  <si>
-    <t>AverageBytesPerRequest</t>
-  </si>
-  <si>
-    <t>GcAfterOldUsed</t>
-  </si>
-  <si>
-    <t>HdfsSpaceFree</t>
-  </si>
-  <si>
-    <t>NodesOcpuConsumption</t>
-  </si>
-  <si>
-    <t>ProvisioningInstances</t>
-  </si>
-  <si>
-    <t>instance_status</t>
-  </si>
-  <si>
-    <t>HarvestedObjects</t>
-  </si>
-  <si>
-    <t>RunExecutionTime</t>
-  </si>
-  <si>
-    <t>BytesWrittenInGB</t>
-  </si>
-  <si>
-    <t>BlockChanges</t>
-  </si>
-  <si>
-    <t>ParseCount</t>
-  </si>
-  <si>
-    <t>MigrationHealth</t>
-  </si>
-  <si>
-    <t>CodeRepositoriesPushes</t>
-  </si>
-  <si>
-    <t>BuildFailure</t>
-  </si>
-  <si>
-    <t>DeploymentExecutionTime</t>
-  </si>
-  <si>
-    <t>RuntimeErrorResponses</t>
-  </si>
-  <si>
-    <t>TrafficManagementQueryCount</t>
-  </si>
-  <si>
-    <t>EmailComplaints</t>
-  </si>
-  <si>
-    <t>MatchedEvents</t>
-  </si>
-  <si>
-    <t>FileSystemWriteThroughput</t>
-  </si>
-  <si>
-    <t>FunctionInvocationCount</t>
-  </si>
-  <si>
-    <t>OcpuConsumption</t>
-  </si>
-  <si>
-    <t>PING.isHealthy</t>
-  </si>
-  <si>
-    <t>ApplicationInvocations</t>
-  </si>
-  <si>
-    <t>BackendServers</t>
-  </si>
-  <si>
-    <t>Archival Storage Used</t>
-  </si>
-  <si>
-    <t>diskUsageUsed</t>
-  </si>
-  <si>
-    <t>PacketsReceived</t>
-  </si>
-  <si>
-    <t>WriteUnits</t>
-  </si>
-  <si>
-    <t>PublishedMessagesCount</t>
-  </si>
-  <si>
-    <t>InactiveManagedInstances</t>
-  </si>
-  <si>
-    <t>BytesReadFromTask</t>
-  </si>
-  <si>
-    <t>PutMessagesThroughput.Bytes</t>
-  </si>
-  <si>
-    <t>DecryptResponseCount</t>
-  </si>
-  <si>
-    <t>ListSecretBundleVersions</t>
-  </si>
-  <si>
-    <t>Traffic</t>
-  </si>
-  <si>
-    <t>VolumeReadOps</t>
-  </si>
-  <si>
-    <t>DiskBytesWritten</t>
-  </si>
-  <si>
-    <t>PacketsToNATgw</t>
-  </si>
-  <si>
-    <t>KubernetesNodeCondition</t>
-  </si>
-  <si>
-    <t>bytesToService</t>
-  </si>
-  <si>
-    <t>VnicFromNetworkBytes</t>
-  </si>
-  <si>
-    <t>HttpRequests</t>
-  </si>
-  <si>
-    <t>AjaxDownloadTime</t>
-  </si>
-  <si>
-    <t>AverageLoadTimePerRequest</t>
-  </si>
-  <si>
-    <t>GcAfterYoungCommitted</t>
-  </si>
-  <si>
-    <t>YarnJobsCompleted</t>
-  </si>
-  <si>
-    <t>StorageUtilization</t>
-  </si>
-  <si>
-    <t>RunningInstances</t>
-  </si>
-  <si>
-    <t>HarvestJobTime</t>
-  </si>
-  <si>
-    <t>RunTotalTime</t>
-  </si>
-  <si>
-    <t>TaskRuns</t>
-  </si>
-  <si>
-    <t>ConnectionLatency</t>
-  </si>
-  <si>
-    <t>CpuCount</t>
-  </si>
-  <si>
-    <t>ExecuteCount</t>
-  </si>
-  <si>
-    <t>DbImportProgress</t>
-  </si>
-  <si>
-    <t>CodeRepositoriesPulls</t>
-  </si>
-  <si>
-    <t>BuildRunExecutionTime</t>
-  </si>
-  <si>
-    <t>StageTimeOut</t>
-  </si>
-  <si>
-    <t>CustomComponentErrorResponses</t>
-  </si>
-  <si>
-    <t>EmailsHardBounced</t>
-  </si>
-  <si>
-    <t>DeliverySucceedEvents</t>
-  </si>
-  <si>
-    <t>FileSystemReadRequestsbySize</t>
-  </si>
-  <si>
-    <t>FunctionResponseCount</t>
-  </si>
-  <si>
-    <t>MemoryUtilization</t>
-  </si>
-  <si>
-    <t>HTTP.DNSLookupTime</t>
-  </si>
-  <si>
-    <t>ManagedInstances</t>
-  </si>
-  <si>
-    <t>BackendTimeouts</t>
-  </si>
-  <si>
-    <t>Processing Errors</t>
-  </si>
-  <si>
-    <t>diskUsageFree</t>
-  </si>
-  <si>
-    <t>Statements</t>
-  </si>
-  <si>
-    <t>StorageGB</t>
-  </si>
-  <si>
-    <t>DeliveredMessagesSize</t>
-  </si>
-  <si>
-    <t>UnsecuredManagedInstances</t>
-  </si>
-  <si>
-    <t>BytesWrittenToTarget</t>
-  </si>
-  <si>
-    <t>PutMessagesThroughput.Count</t>
-  </si>
-  <si>
-    <t>GenerateDataEncryptionKeyResponseCount</t>
-  </si>
-  <si>
-    <t>CreateSecret</t>
-  </si>
-  <si>
-    <t>Bandwidth</t>
-  </si>
-  <si>
-    <t>VolumeWriteOps</t>
-  </si>
-  <si>
-    <t>DiskIopsRead</t>
-  </si>
-  <si>
-    <t>NodeState</t>
-  </si>
-  <si>
-    <t>bytesFromService</t>
-  </si>
-  <si>
-    <t>VnicFromNetworkPackets</t>
-  </si>
-  <si>
-    <t>HttpResponses</t>
-  </si>
-  <si>
-    <t>AjaxErrors</t>
-  </si>
-  <si>
-    <t>ConnectCount</t>
-  </si>
-  <si>
-    <t>GcAfterYoungUsed</t>
-  </si>
-  <si>
-    <t>SparkJobsCompleted</t>
-  </si>
-  <si>
-    <t>CommitsProcessedByOrderer</t>
-  </si>
-  <si>
-    <t>TerminatedInstances</t>
-  </si>
-  <si>
-    <t>HarvestJobErrorCount</t>
-  </si>
-  <si>
-    <t>RunSucceeded</t>
-  </si>
-  <si>
-    <t>PipelineRunDurationInHours</t>
-  </si>
-  <si>
-    <t>CpuTime</t>
-  </si>
-  <si>
-    <t>TransactionCount</t>
-  </si>
-  <si>
-    <t>DbExportProgress</t>
-  </si>
-  <si>
-    <t>CodeRepositorySize</t>
-  </si>
-  <si>
-    <t>StageExecutionTime</t>
-  </si>
-  <si>
-    <t>DeploymentFailure</t>
-  </si>
-  <si>
-    <t>CustomComponentRejectedResponses</t>
-  </si>
-  <si>
-    <t>EmailsSoftBounced</t>
-  </si>
-  <si>
-    <t>DeliveryFailedEvents</t>
-  </si>
-  <si>
-    <t>FileSystemWriteRequestsbySize</t>
-  </si>
-  <si>
-    <t>DeploymentHealth</t>
-  </si>
-  <si>
-    <t>HTTP.TCPConnectTime.Full</t>
-  </si>
-  <si>
-    <t>JavaRuntimeVendors</t>
-  </si>
-  <si>
-    <t>Agent Data Upload Size</t>
-  </si>
-  <si>
-    <t>diskUsageInstallSize</t>
-  </si>
-  <si>
-    <t>StatementLatency</t>
-  </si>
-  <si>
-    <t>PacketsSent</t>
-  </si>
-  <si>
-    <t>ReadThrottleCount</t>
-  </si>
-  <si>
-    <t>FailedMessagesSize</t>
-  </si>
-  <si>
-    <t>UpdatableManagedInstances</t>
-  </si>
-  <si>
-    <t>BytesWrittenToTask</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PutMessagesThrottling.Count	</t>
-  </si>
-  <si>
-    <t>UpdateSecret</t>
-  </si>
-  <si>
-    <t>NumberOfRequestsDetected</t>
-  </si>
-  <si>
-    <t>InstanceMetadataRequests</t>
-  </si>
-  <si>
-    <t>DiskIopsWritten</t>
-  </si>
-  <si>
-    <t>UnschedulablePods</t>
-  </si>
-  <si>
-    <t>sgwDropsFromService</t>
-  </si>
-  <si>
-    <t>VnicToNetworkBytes</t>
-  </si>
-  <si>
-    <t>BackendHttpResponses</t>
-  </si>
-  <si>
-    <t>AjaxFirstByteTime</t>
-  </si>
-  <si>
-    <t>ConnectTime</t>
-  </si>
-  <si>
-    <t>GcOldTotalCount</t>
-  </si>
-  <si>
-    <t>DiskUtilization</t>
-  </si>
-  <si>
-    <t>EndorsementsProcessedByPeer</t>
-  </si>
-  <si>
-    <t>RunFailed</t>
-  </si>
-  <si>
-    <t>WorkspaceUsageInHours</t>
-  </si>
-  <si>
-    <t>UserCalls</t>
-  </si>
-  <si>
-    <t>ReplicationLatency</t>
-  </si>
-  <si>
-    <t>EmailsRelayed</t>
-  </si>
-  <si>
-    <t>FileSystemReadAverageLatencybySize</t>
-  </si>
-  <si>
-    <t>DeploymentInboundLag</t>
-  </si>
-  <si>
-    <t>HTTP.RequestTime</t>
-  </si>
-  <si>
-    <t>JavaRuntimeVersions</t>
-  </si>
-  <si>
-    <t>Agent Data Upload Errors</t>
-  </si>
-  <si>
-    <t>uploadBufferPctusedofmaxbuffer</t>
-  </si>
-  <si>
-    <t>CPUUtilization</t>
-  </si>
-  <si>
-    <t>WriteThrottleCount</t>
-  </si>
-  <si>
-    <t>DeliveredMessagesCount</t>
-  </si>
-  <si>
-    <t>DataFreshness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PutMessagesSuccess.Count	</t>
-  </si>
-  <si>
-    <t>LoadAverage</t>
-  </si>
-  <si>
-    <t>sgwDropsToService</t>
-  </si>
-  <si>
-    <t>VnicToNetworkPackets</t>
-  </si>
-  <si>
-    <t>Latency</t>
-  </si>
-  <si>
-    <t>AjaxInitTime</t>
-  </si>
-  <si>
-    <t>DNSLookups</t>
-  </si>
-  <si>
-    <t>GcOldTotalTime</t>
-  </si>
-  <si>
-    <t>CommitsProcessedByPeer</t>
-  </si>
-  <si>
-    <t>ReplicationThroughput</t>
-  </si>
-  <si>
-    <t>FileSystemWriteAverageLatencybySize</t>
-  </si>
-  <si>
-    <t>DeploymentOutboundLag</t>
-  </si>
-  <si>
-    <t>HTTP.ResponseTime</t>
-  </si>
-  <si>
-    <t>ClosedConnections</t>
-  </si>
-  <si>
-    <t>usageCpu</t>
-  </si>
-  <si>
-    <t>PacketsError</t>
-  </si>
-  <si>
-    <t>StorageThrottleCount</t>
-  </si>
-  <si>
-    <t>FailedMessagesCount</t>
-  </si>
-  <si>
-    <t>ErrorsAtSource</t>
-  </si>
-  <si>
-    <t>PutMessagesFault.Count</t>
-  </si>
-  <si>
-    <t>MemoryAllocationStalls</t>
-  </si>
-  <si>
-    <t>VnicIngressDropsThrottle</t>
-  </si>
-  <si>
-    <t>IntegrationLatency</t>
-  </si>
-  <si>
-    <t>AjaxResponseTime</t>
-  </si>
-  <si>
-    <t>DNSTime</t>
-  </si>
-  <si>
-    <t>GcYoungTotalCount</t>
-  </si>
-  <si>
-    <t>NetworkBytesIn</t>
-  </si>
-  <si>
-    <t>DiskReadBytes</t>
-  </si>
-  <si>
-    <t>DBBlockChanges</t>
-  </si>
-  <si>
-    <t>DBTime</t>
-  </si>
-  <si>
-    <t>MetadataRequestAverageLatency</t>
-  </si>
-  <si>
-    <t>HTTP.TotalDuration</t>
-  </si>
-  <si>
-    <t>usageRss</t>
-  </si>
-  <si>
-    <t>NetworkReceiveBytes</t>
-  </si>
-  <si>
-    <t>ErrorsAtTarget</t>
-  </si>
-  <si>
-    <t>PutMessagesRecords.Count</t>
-  </si>
-  <si>
-    <t>VnicEgressDropsThrottle</t>
-  </si>
-  <si>
-    <t>InternalLatency</t>
-  </si>
-  <si>
-    <t>ApdexScore</t>
-  </si>
-  <si>
-    <t>Failure</t>
-  </si>
-  <si>
-    <t>GcYoungTotalTime</t>
-  </si>
-  <si>
-    <t>NetworkBytesOut</t>
-  </si>
-  <si>
-    <t>DiskWriteBytes</t>
-  </si>
-  <si>
-    <t>StorageUtilizationByTablespace</t>
-  </si>
-  <si>
-    <t>MetadataIOPS</t>
-  </si>
-  <si>
-    <t>PING.Latency</t>
-  </si>
-  <si>
-    <t>NetworkTransmitBytes</t>
-  </si>
-  <si>
-    <t>ErrorsAtTask</t>
-  </si>
-  <si>
-    <t>GetMessagesLatency.Time</t>
-  </si>
-  <si>
-    <t>NetworksBytesIn</t>
-  </si>
-  <si>
-    <t>VnicIngressDropsConntrackFull</t>
-  </si>
-  <si>
-    <t>ResponseCacheAction</t>
-  </si>
-  <si>
-    <t>HTTP4xxFailureCount</t>
-  </si>
-  <si>
-    <t>HeapCommitted</t>
-  </si>
-  <si>
-    <t>FileSystemUtilization</t>
-  </si>
-  <si>
-    <t>IOPS</t>
-  </si>
-  <si>
-    <t>FileSystemUsage</t>
-  </si>
-  <si>
-    <t>HttpResponses200</t>
-  </si>
-  <si>
-    <t>DbVolumeReadOperations</t>
-  </si>
-  <si>
-    <t>LatencyAtSource</t>
-  </si>
-  <si>
-    <t>GetMessagesThroughput.Bytes</t>
-  </si>
-  <si>
-    <t>NetworksBytesOut</t>
-  </si>
-  <si>
-    <t>VnicEgressDropsConntrackFull</t>
-  </si>
-  <si>
-    <t>ResponseCacheAvailability</t>
-  </si>
-  <si>
-    <t>HTTP5xxFailureCount</t>
-  </si>
-  <si>
-    <t>HeapUsed</t>
-  </si>
-  <si>
-    <t>GcCpuUtilization</t>
-  </si>
-  <si>
-    <t>FailedConnections</t>
-  </si>
-  <si>
-    <t>IOThroughput</t>
-  </si>
-  <si>
-    <t>StorageUsed</t>
-  </si>
-  <si>
-    <t>MountTargetReadThroughput</t>
-  </si>
-  <si>
-    <t>HttpResponses2xx</t>
-  </si>
-  <si>
-    <t>DbVolumeWriteOperations</t>
-  </si>
-  <si>
-    <t>LatencyAtTarget</t>
-  </si>
-  <si>
-    <t>GetMessagesThroughput.Count</t>
-  </si>
-  <si>
-    <t>VnicConntrackUtilPercent</t>
-  </si>
-  <si>
-    <t>ResponseCacheLatency</t>
-  </si>
-  <si>
-    <t>NonHeapCommitted</t>
-  </si>
-  <si>
-    <t>FailedLogons</t>
-  </si>
-  <si>
-    <t>LogicalBlocksRead</t>
-  </si>
-  <si>
-    <t>StorageUsedByTablespace</t>
-  </si>
-  <si>
-    <t>MountTargetWriteThroughput</t>
-  </si>
-  <si>
-    <t>HttpResponses3xx</t>
-  </si>
-  <si>
-    <t>DbVolumeReadBytes</t>
-  </si>
-  <si>
-    <t>LatencyAtTask</t>
-  </si>
-  <si>
-    <t>GetMessagesThrottling.Count</t>
-  </si>
-  <si>
-    <t>VnicConntrackIsFull</t>
-  </si>
-  <si>
-    <t>LatencyDeviation</t>
-  </si>
-  <si>
-    <t>NonHeapUsed</t>
-  </si>
-  <si>
-    <t>HardParseCount</t>
-  </si>
-  <si>
-    <t>MaxTablespaceSize</t>
-  </si>
-  <si>
-    <t>StorageAllocated</t>
-  </si>
-  <si>
-    <t>MountTargetConnections</t>
-  </si>
-  <si>
-    <t>HttpResponses4xx</t>
-  </si>
-  <si>
-    <t>DbVolumeWriteBytes</t>
-  </si>
-  <si>
-    <t>MessagesReadFromSource</t>
-  </si>
-  <si>
-    <t>GetMessagesSuccess.Count</t>
-  </si>
-  <si>
-    <t>FrustratedPageViews</t>
-  </si>
-  <si>
-    <t>MonitorExecutionTime</t>
-  </si>
-  <si>
-    <t>ProcessCpuLoad</t>
-  </si>
-  <si>
-    <t>MemoryUsage</t>
-  </si>
-  <si>
-    <t>StorageAllocatedByTablespace</t>
-  </si>
-  <si>
-    <t>MountTargetHealth</t>
-  </si>
-  <si>
-    <t>HttpResponses502</t>
-  </si>
-  <si>
-    <t>DbVolumeUtilization</t>
-  </si>
-  <si>
-    <t>MessagesReadFromTask</t>
-  </si>
-  <si>
-    <t>GetMessagesFault.Count</t>
-  </si>
-  <si>
-    <t>PageClicks</t>
-  </si>
-  <si>
-    <t>MonitorLoadTime</t>
-  </si>
-  <si>
-    <t>ProcessCpuTime</t>
-  </si>
-  <si>
-    <t>MonitoringStatus</t>
-  </si>
-  <si>
-    <t>OcpusAllocated</t>
-  </si>
-  <si>
-    <t>HttpResponses504</t>
-  </si>
-  <si>
-    <t>HeatWaveHealth</t>
-  </si>
-  <si>
-    <t>MessagesWrittenToTask</t>
-  </si>
-  <si>
-    <t>PageDownloadTime</t>
-  </si>
-  <si>
-    <t>PacketLossPercentage</t>
-  </si>
-  <si>
-    <t>SystemCpuLoad</t>
-  </si>
-  <si>
-    <t>HttpResponses5xx</t>
-  </si>
-  <si>
-    <t>HeatWaveStatements</t>
-  </si>
-  <si>
-    <t>MessagesWrittenToTarget</t>
-  </si>
-  <si>
-    <t>PageFirstByteTime</t>
-  </si>
-  <si>
-    <t>RequestCount</t>
-  </si>
-  <si>
-    <t>SystemPhysicalMemoryFree</t>
-  </si>
-  <si>
-    <t>LogicalReads</t>
-  </si>
-  <si>
-    <t>ParsesByType</t>
-  </si>
-  <si>
-    <t>InvalidHeaderResponses</t>
-  </si>
-  <si>
-    <t>HeatWaveDataLoadProgress</t>
-  </si>
-  <si>
-    <t>NumberofFunctionInvocations</t>
-  </si>
-  <si>
-    <t>PageInitTime</t>
-  </si>
-  <si>
-    <t>SSLTime</t>
-  </si>
-  <si>
-    <t>SystemSwapFree</t>
-  </si>
-  <si>
-    <t>OCPUsAllocated</t>
-  </si>
-  <si>
-    <t>RedoSize</t>
-  </si>
-  <si>
-    <t>DbmgmtJobExecutionsCount</t>
-  </si>
-  <si>
-    <t>KeepAliveConnections</t>
-  </si>
-  <si>
-    <t>BackupSize</t>
-  </si>
-  <si>
-    <t>ServiceConnectorHubErrors</t>
-  </si>
-  <si>
-    <t>PageInteractiveTime</t>
-  </si>
-  <si>
-    <t>TotalRequestFailures</t>
-  </si>
-  <si>
-    <t>SystemVirtualMemoryCommitted</t>
-  </si>
-  <si>
-    <t>WaitTime</t>
-  </si>
-  <si>
-    <t>ResponseTimeFirstByte</t>
-  </si>
-  <si>
-    <t>BackupTime</t>
-  </si>
-  <si>
-    <t>PageRenderTime</t>
-  </si>
-  <si>
-    <t>TotalSteps</t>
-  </si>
-  <si>
-    <t>ThreadBlockedCount</t>
-  </si>
-  <si>
-    <t>TransactionsByStatus</t>
-  </si>
-  <si>
-    <t>ResponseTimeHttpHeader</t>
-  </si>
-  <si>
-    <t>ChannelLag</t>
-  </si>
-  <si>
-    <t>PageResponseTime</t>
-  </si>
-  <si>
-    <t>CertificateExpiry</t>
-  </si>
-  <si>
-    <t>ThreadCount</t>
-  </si>
-  <si>
-    <t>ParseFailureCount</t>
-  </si>
-  <si>
-    <t>UnhealthyBackendServers</t>
-  </si>
-  <si>
-    <t>ChannelFailure</t>
-  </si>
-  <si>
-    <t>PageViews</t>
-  </si>
-  <si>
-    <t>ThreadDeadlockCount</t>
-  </si>
-  <si>
-    <t>PhysicalReads</t>
-  </si>
-  <si>
-    <t>AcceptedConnections</t>
-  </si>
-  <si>
-    <t>RedirectTime</t>
-  </si>
-  <si>
-    <t>ThreadTimedWaitingCount</t>
-  </si>
-  <si>
-    <t>PhysicalReadTotalBytes</t>
-  </si>
-  <si>
-    <t>AcceptedSSLHandshake</t>
-  </si>
-  <si>
-    <t>SatisfiedPageViews</t>
-  </si>
-  <si>
-    <t>ThreadWaitingCount</t>
-  </si>
-  <si>
-    <t>PhysicalWrites</t>
-  </si>
-  <si>
-    <t>ScriptErrors</t>
-  </si>
-  <si>
-    <t>TotalTraceCount</t>
-  </si>
-  <si>
-    <t>PhysicalWriteTotalBytes</t>
-  </si>
-  <si>
-    <t>ActiveSSLConnections</t>
-  </si>
-  <si>
-    <t>TotalSpanCount</t>
-  </si>
-  <si>
-    <t>QueryLatency</t>
-  </si>
-  <si>
-    <t>CPUTime</t>
-  </si>
-  <si>
-    <t>ToleratingPageViews</t>
-  </si>
-  <si>
-    <t>TotalTraceSampledCount</t>
-  </si>
-  <si>
-    <t>QueuedStatements</t>
-  </si>
-  <si>
-    <t>TotalSpanSampledCount</t>
-  </si>
-  <si>
-    <t>RedoGenerated</t>
-  </si>
-  <si>
-    <t>FailedSSLClientCertVerify</t>
-  </si>
-  <si>
-    <t>Uptime</t>
-  </si>
-  <si>
-    <t>AvgGCCRBlockReceiveTime</t>
-  </si>
-  <si>
-    <t>FailedSSLHandshake</t>
-  </si>
-  <si>
-    <t>WeblogicStuckThreadCount</t>
-  </si>
-  <si>
-    <t>RunningStatements</t>
-  </si>
-  <si>
-    <t>GCCRBlocksReceived</t>
-  </si>
-  <si>
-    <t>HandledConnections</t>
-  </si>
-  <si>
-    <t>Sessions</t>
-  </si>
-  <si>
-    <t>InterconnectTraffic</t>
-  </si>
-  <si>
-    <t>SQLNetBytesFromClient</t>
-  </si>
-  <si>
-    <t>PeakBandwidth</t>
-  </si>
-  <si>
-    <t>SQLNetBytesFromDBLink</t>
-  </si>
-  <si>
-    <t>HttpResponses 200</t>
-  </si>
-  <si>
-    <t>SQLNetBytesToClient</t>
-  </si>
-  <si>
-    <t>HttpResponses 2xx</t>
-  </si>
-  <si>
-    <t>SQLNetBytesToDBLink</t>
-  </si>
-  <si>
-    <t>HttpResponses 3xx</t>
-  </si>
-  <si>
-    <t>HttpResponses 4xx</t>
-  </si>
-  <si>
-    <t>HttpResponses 502</t>
-  </si>
-  <si>
-    <t>HttpResponses 504</t>
-  </si>
-  <si>
-    <t>HttpResponses 5xx</t>
-  </si>
-  <si>
-    <t>TransportLag</t>
-  </si>
-  <si>
-    <t>UserCommits</t>
-  </si>
-  <si>
-    <t>UserRollbacks</t>
-  </si>
-  <si>
-    <t>TunnelState[1m].mean() == 0</t>
-  </si>
-  <si>
-    <t>PT5M</t>
-  </si>
-  <si>
-    <t>ConnectionState[1m].mean() == 0</t>
-  </si>
-  <si>
-    <t>Network</t>
-  </si>
-  <si>
-    <t>vpn-status-alarm</t>
-  </si>
-  <si>
-    <t>fast-connect-status-alarm</t>
-  </si>
-  <si>
-    <t>updatenetworksecuritygroupsecurityrules</t>
-  </si>
-  <si>
-    <t>notify-on-iam-changes-rule</t>
-  </si>
-  <si>
-    <t>notify-on-network-changes-rule</t>
-  </si>
-  <si>
-    <t>events rule to detect when networking resources are created, updated or deleted.</t>
-  </si>
-  <si>
-    <t>events rule to detect when IAM resources are created, updated or deleted.</t>
-  </si>
-  <si>
-    <t>Topic for storage performance related notifications.</t>
-  </si>
-  <si>
-    <t>Topic for compute performance related notifications.</t>
-  </si>
-  <si>
-    <t>Topic for database performance related notifications.</t>
-  </si>
-  <si>
-    <t>StorageTopic</t>
-  </si>
-  <si>
-    <t>ComputeTopic</t>
-  </si>
-  <si>
-    <t>DatabaseTopic</t>
-  </si>
-  <si>
-    <t>health_status[1m].count() == 1</t>
-  </si>
-  <si>
-    <t>instance_status[1m].count() == 1</t>
-  </si>
-  <si>
-    <t>CpuUtilization[1m].mean() &gt; 80</t>
-  </si>
-  <si>
-    <t>MemoryUtilization[1m].mean() &gt; 80</t>
-  </si>
-  <si>
-    <t>maintenance_status[1m].count() == 1</t>
-  </si>
-  <si>
-    <t>StorageUtilization[1m].mean() &gt; 80</t>
-  </si>
-  <si>
-    <t>AppDev</t>
-  </si>
-  <si>
-    <t>Database</t>
-  </si>
-  <si>
-    <t>bare-metal-unhealthy-alarm</t>
-  </si>
-  <si>
-    <t>instance-status-alarm</t>
-  </si>
-  <si>
-    <t>high-cpu-alarm</t>
-  </si>
-  <si>
-    <t>high-memory-alarm</t>
-  </si>
-  <si>
-    <t>vm-maintenance-alarm</t>
-  </si>
-  <si>
-    <t>adb-storage-alarm</t>
-  </si>
-  <si>
-    <t>adb-cpu-alarm</t>
-  </si>
-  <si>
-    <t>Topic for budget related notifications.</t>
-  </si>
-  <si>
-    <t>BudgetTopic</t>
-  </si>
-  <si>
-    <t>autonomous.exadata.infrastructure.critical</t>
-  </si>
-  <si>
-    <t>cloudexadatainfrastructure.critical</t>
-  </si>
-  <si>
-    <t>autonomous.database.critical</t>
-  </si>
-  <si>
-    <t>dbsystem.critical</t>
-  </si>
-  <si>
-    <t>events rule to detect when cost resources such as budgets and financial tracking constructs are created, updated or deleted.</t>
-  </si>
-  <si>
-    <t>events rule to detect when compute related resources are created, updated or deleted.</t>
-  </si>
-  <si>
-    <t>events rule to detect when storage resources are created, updated or deleted.</t>
-  </si>
-  <si>
-    <t>events rule to detect when database resources are created, updated or deleted in the database compartment.</t>
-  </si>
-  <si>
-    <t>notify-on-budget-changes-rule</t>
-  </si>
-  <si>
-    <t>notify-on-compute-changes-rule</t>
-  </si>
-  <si>
-    <t>notify-on-storage-changes-rule</t>
-  </si>
-  <si>
-    <t>notify-on-database-changes-rule</t>
-  </si>
-  <si>
-    <t># Rows after &lt;END&gt; will not be processed (Sample data is provided  for reference after &lt;END&gt;); 
-Columns: Region, Compartment Name, Alarm Name, Is Enabled, Metric Compartment Name, Namespace, Query, Destination Topic Name and Severity are mandatory.
-"Defined Tags" - Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
-                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
-                                Example: Operations.CostCenter=01;Users.Name=user01</t>
-  </si>
-  <si>
-    <t># Rows after &lt;END&gt; will not be processed (Sample data is provided  for reference after &lt;END&gt;); 
-Columns: Region, Compartment Name, Event Name, Action Type, Action is Enabled, Service Name, Resources, Event is Enabled and Topic are mandatory.
-"Resource" - Choose the appropriate option from the dropdown, populated based on the 'Service Name' selected.
-"Defined Tags" - Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
-                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
-                                Example: Operations.CostCenter=01;Users.Name=user01</t>
-  </si>
-  <si>
-    <t># Rows after &lt;END&gt; will not be processed (Sample data is provided  for reference after &lt;END&gt;); 
-Columns: Region, Compartment Name, Topic, Protocol and Endpoint are mandatory.
-"Protocol" - Only EMAIL is supported currently for creation. Export supports Functions and Email.
-"Defined Tags" - Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
-                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
-                                Example: Operations.CostCenter=01;Users.Name=user01</t>
   </si>
 </sst>
 </file>
@@ -5924,8 +5924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5936,7 +5936,7 @@
     <row r="1" spans="1:1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:1" ht="72.650000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
-        <v>643</v>
+        <v>1168</v>
       </c>
     </row>
   </sheetData>
@@ -5949,7 +5949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
@@ -5967,7 +5967,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="89.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -6049,10 +6049,10 @@
         <v>577</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>9</v>
@@ -6070,10 +6070,10 @@
         <v>577</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>9</v>
@@ -6091,10 +6091,10 @@
         <v>577</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>9</v>
@@ -6112,10 +6112,10 @@
         <v>577</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>9</v>
@@ -6430,7 +6430,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="85.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -6490,10 +6490,10 @@
         <v>576</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>19</v>
@@ -6526,10 +6526,10 @@
         <v>576</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>19</v>
@@ -6562,10 +6562,10 @@
         <v>576</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>19</v>
@@ -6598,10 +6598,10 @@
         <v>576</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>19</v>
@@ -6634,10 +6634,10 @@
         <v>576</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>19</v>
@@ -6670,10 +6670,10 @@
         <v>576</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>19</v>
@@ -6706,10 +6706,10 @@
         <v>576</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>19</v>
@@ -6742,10 +6742,10 @@
         <v>576</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>19</v>
@@ -6778,10 +6778,10 @@
         <v>576</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>19</v>
@@ -6814,10 +6814,10 @@
         <v>576</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>19</v>
@@ -6850,10 +6850,10 @@
         <v>576</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>19</v>
@@ -6886,10 +6886,10 @@
         <v>576</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>19</v>
@@ -6922,10 +6922,10 @@
         <v>576</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>19</v>
@@ -6958,10 +6958,10 @@
         <v>576</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>19</v>
@@ -6994,10 +6994,10 @@
         <v>576</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>19</v>
@@ -7030,10 +7030,10 @@
         <v>576</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>19</v>
@@ -7066,10 +7066,10 @@
         <v>576</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>19</v>
@@ -7102,10 +7102,10 @@
         <v>576</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>19</v>
@@ -7138,10 +7138,10 @@
         <v>576</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>19</v>
@@ -7174,10 +7174,10 @@
         <v>576</v>
       </c>
       <c r="C22" s="10" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>1128</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>1129</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>19</v>
@@ -7210,10 +7210,10 @@
         <v>576</v>
       </c>
       <c r="C23" s="10" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>1128</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>1129</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>19</v>
@@ -7246,10 +7246,10 @@
         <v>576</v>
       </c>
       <c r="C24" s="10" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>1128</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>1129</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>19</v>
@@ -7282,10 +7282,10 @@
         <v>576</v>
       </c>
       <c r="C25" s="10" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>1128</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>1129</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>19</v>
@@ -7318,10 +7318,10 @@
         <v>576</v>
       </c>
       <c r="C26" s="10" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>1128</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>1129</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>19</v>
@@ -7354,10 +7354,10 @@
         <v>576</v>
       </c>
       <c r="C27" s="10" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>1128</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>1129</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>19</v>
@@ -7390,10 +7390,10 @@
         <v>576</v>
       </c>
       <c r="C28" s="10" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>1128</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>1129</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>19</v>
@@ -7426,10 +7426,10 @@
         <v>576</v>
       </c>
       <c r="C29" s="10" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>1128</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>1129</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>19</v>
@@ -7462,10 +7462,10 @@
         <v>576</v>
       </c>
       <c r="C30" s="10" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D30" s="10" t="s">
         <v>1128</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>1129</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>19</v>
@@ -7498,10 +7498,10 @@
         <v>576</v>
       </c>
       <c r="C31" s="10" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D31" s="10" t="s">
         <v>1128</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>1129</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>19</v>
@@ -7534,10 +7534,10 @@
         <v>576</v>
       </c>
       <c r="C32" s="10" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D32" s="10" t="s">
         <v>1128</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>1129</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>19</v>
@@ -7570,10 +7570,10 @@
         <v>576</v>
       </c>
       <c r="C33" s="10" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>1128</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>1129</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>19</v>
@@ -7606,10 +7606,10 @@
         <v>576</v>
       </c>
       <c r="C34" s="10" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>1128</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>1129</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>19</v>
@@ -7642,10 +7642,10 @@
         <v>576</v>
       </c>
       <c r="C35" s="10" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>1128</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>1129</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>19</v>
@@ -7678,10 +7678,10 @@
         <v>576</v>
       </c>
       <c r="C36" s="10" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>1128</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>1129</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>19</v>
@@ -7696,7 +7696,7 @@
         <v>22</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="J36" s="10" t="b">
         <v>1</v>
@@ -7714,10 +7714,10 @@
         <v>576</v>
       </c>
       <c r="C37" s="10" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>1128</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>1129</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>19</v>
@@ -7750,10 +7750,10 @@
         <v>576</v>
       </c>
       <c r="C38" s="10" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D38" s="10" t="s">
         <v>1128</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>1129</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>19</v>
@@ -7786,10 +7786,10 @@
         <v>576</v>
       </c>
       <c r="C39" s="10" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D39" s="10" t="s">
         <v>1128</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>1129</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>19</v>
@@ -7822,10 +7822,10 @@
         <v>576</v>
       </c>
       <c r="C40" s="10" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>1128</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>1129</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>19</v>
@@ -7858,10 +7858,10 @@
         <v>576</v>
       </c>
       <c r="C41" s="10" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D41" s="10" t="s">
         <v>1128</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>1129</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>19</v>
@@ -7894,10 +7894,10 @@
         <v>576</v>
       </c>
       <c r="C42" s="10" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D42" s="10" t="s">
         <v>1128</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>1129</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>19</v>
@@ -7930,10 +7930,10 @@
         <v>576</v>
       </c>
       <c r="C43" s="10" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D43" s="10" t="s">
         <v>1128</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>1129</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>19</v>
@@ -7966,10 +7966,10 @@
         <v>576</v>
       </c>
       <c r="C44" s="10" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D44" s="10" t="s">
         <v>1128</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>1129</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>19</v>
@@ -8002,10 +8002,10 @@
         <v>576</v>
       </c>
       <c r="C45" s="10" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D45" s="10" t="s">
         <v>1128</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>1129</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>19</v>
@@ -8038,10 +8038,10 @@
         <v>576</v>
       </c>
       <c r="C46" s="10" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D46" s="10" t="s">
         <v>1128</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>1129</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>19</v>
@@ -8074,10 +8074,10 @@
         <v>576</v>
       </c>
       <c r="C47" s="10" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D47" s="10" t="s">
         <v>1128</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>1129</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>19</v>
@@ -8110,10 +8110,10 @@
         <v>576</v>
       </c>
       <c r="C48" s="10" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D48" s="10" t="s">
         <v>1128</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>1129</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>19</v>
@@ -8146,10 +8146,10 @@
         <v>576</v>
       </c>
       <c r="C49" s="10" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D49" s="10" t="s">
         <v>1128</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>1129</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>19</v>
@@ -8182,10 +8182,10 @@
         <v>576</v>
       </c>
       <c r="C50" s="10" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D50" s="10" t="s">
         <v>1128</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>1129</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>19</v>
@@ -8218,10 +8218,10 @@
         <v>576</v>
       </c>
       <c r="C51" s="10" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D51" s="10" t="s">
         <v>1128</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>1129</v>
       </c>
       <c r="E51" s="10" t="s">
         <v>19</v>
@@ -8254,10 +8254,10 @@
         <v>576</v>
       </c>
       <c r="C52" s="10" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D52" s="10" t="s">
         <v>1128</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>1129</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>19</v>
@@ -8290,10 +8290,10 @@
         <v>576</v>
       </c>
       <c r="C53" s="10" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D53" s="10" t="s">
         <v>1128</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>1129</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>19</v>
@@ -8326,10 +8326,10 @@
         <v>576</v>
       </c>
       <c r="C54" s="10" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D54" s="10" t="s">
         <v>1128</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>1129</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>19</v>
@@ -8362,10 +8362,10 @@
         <v>576</v>
       </c>
       <c r="C55" s="10" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D55" s="10" t="s">
         <v>1128</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>1129</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>19</v>
@@ -8398,10 +8398,10 @@
         <v>576</v>
       </c>
       <c r="C56" s="10" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D56" s="10" t="s">
         <v>1128</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>1129</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>19</v>
@@ -8434,10 +8434,10 @@
         <v>576</v>
       </c>
       <c r="C57" s="10" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D57" s="10" t="s">
         <v>1128</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>1129</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>19</v>
@@ -8470,10 +8470,10 @@
         <v>576</v>
       </c>
       <c r="C58" s="10" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D58" s="10" t="s">
         <v>1128</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>1129</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>19</v>
@@ -8506,10 +8506,10 @@
         <v>576</v>
       </c>
       <c r="C59" s="10" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D59" s="10" t="s">
         <v>1128</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>1129</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>19</v>
@@ -8542,10 +8542,10 @@
         <v>576</v>
       </c>
       <c r="C60" s="10" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D60" s="10" t="s">
         <v>1128</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>1129</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>19</v>
@@ -8578,10 +8578,10 @@
         <v>576</v>
       </c>
       <c r="C61" s="10" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D61" s="10" t="s">
         <v>1128</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>1129</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>19</v>
@@ -8614,10 +8614,10 @@
         <v>576</v>
       </c>
       <c r="C62" s="10" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D62" s="10" t="s">
         <v>1128</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>1129</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>19</v>
@@ -8649,10 +8649,10 @@
         <v>576</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>19</v>
@@ -8673,7 +8673,7 @@
         <v>1</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="L63" s="10"/>
     </row>
@@ -8685,10 +8685,10 @@
         <v>576</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>19</v>
@@ -8709,7 +8709,7 @@
         <v>1</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="L64" s="10"/>
     </row>
@@ -8721,10 +8721,10 @@
         <v>576</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>19</v>
@@ -8745,7 +8745,7 @@
         <v>1</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="L65" s="10"/>
     </row>
@@ -8757,10 +8757,10 @@
         <v>576</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>19</v>
@@ -8781,7 +8781,7 @@
         <v>1</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="L66" s="10"/>
     </row>
@@ -8790,13 +8790,13 @@
         <v>7</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>19</v>
@@ -8817,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="K67" s="10" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="L67" s="10"/>
     </row>
@@ -8826,13 +8826,13 @@
         <v>7</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>19</v>
@@ -8853,7 +8853,7 @@
         <v>1</v>
       </c>
       <c r="K68" s="10" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="L68" s="10"/>
     </row>
@@ -8862,13 +8862,13 @@
         <v>7</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="E69" s="10" t="s">
         <v>19</v>
@@ -8889,7 +8889,7 @@
         <v>1</v>
       </c>
       <c r="K69" s="10" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="L69" s="10"/>
     </row>
@@ -8898,13 +8898,13 @@
         <v>7</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>19</v>
@@ -8925,7 +8925,7 @@
         <v>1</v>
       </c>
       <c r="K70" s="10" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="L70" s="10"/>
     </row>
@@ -8934,13 +8934,13 @@
         <v>7</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="E71" s="10" t="s">
         <v>19</v>
@@ -8961,7 +8961,7 @@
         <v>1</v>
       </c>
       <c r="K71" s="10" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="L71" s="10"/>
     </row>
@@ -8970,13 +8970,13 @@
         <v>7</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>19</v>
@@ -8991,13 +8991,13 @@
         <v>73</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="J72" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K72" s="10" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="L72" s="10"/>
     </row>
@@ -9006,13 +9006,13 @@
         <v>7</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="E73" s="10" t="s">
         <v>19</v>
@@ -9027,13 +9027,13 @@
         <v>73</v>
       </c>
       <c r="I73" s="10" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="J73" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K73" s="10" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="L73" s="10"/>
     </row>
@@ -9042,13 +9042,13 @@
         <v>7</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="E74" s="10" t="s">
         <v>19</v>
@@ -9063,13 +9063,13 @@
         <v>73</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="J74" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K74" s="10" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="L74" s="10"/>
     </row>
@@ -9078,13 +9078,13 @@
         <v>7</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="E75" s="10" t="s">
         <v>19</v>
@@ -9099,13 +9099,13 @@
         <v>73</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="J75" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K75" s="10" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="L75" s="10"/>
     </row>
@@ -9157,7 +9157,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -9181,37 +9181,37 @@
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>644</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>645</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>646</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>647</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>648</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>649</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>650</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>651</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>652</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="21" t="s">
         <v>653</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>654</v>
       </c>
       <c r="N2" s="21" t="s">
         <v>6</v>
@@ -9234,35 +9234,35 @@
         <v>7</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>1123</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>1124</v>
       </c>
       <c r="D3" s="10" t="b">
         <v>1</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="I3" s="10" t="s">
+        <v>1119</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>1120</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>1121</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>573</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="M3" s="10"/>
       <c r="N3" s="13"/>
@@ -9284,35 +9284,35 @@
         <v>7</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="D4" s="10" t="b">
         <v>1</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>573</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="M4" s="10"/>
       <c r="N4" s="13"/>
@@ -9334,35 +9334,35 @@
         <v>7</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="D5" s="10" t="b">
         <v>1</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="M5" s="10"/>
       <c r="N5" s="13"/>
@@ -9384,35 +9384,35 @@
         <v>7</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="D6" s="10" t="b">
         <v>1</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="M6" s="10"/>
       <c r="N6" s="13"/>
@@ -9434,35 +9434,35 @@
         <v>7</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="D7" s="10" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="M7" s="10"/>
       <c r="N7" s="13"/>
@@ -9484,35 +9484,35 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="D8" s="10" t="b">
         <v>1</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="M8" s="10"/>
       <c r="N8" s="13"/>
@@ -9534,35 +9534,35 @@
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="D9" s="10" t="b">
         <v>1</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="M9" s="10"/>
       <c r="N9" s="13"/>
@@ -9584,35 +9584,35 @@
         <v>7</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D10" s="10" t="b">
         <v>1</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="M10" s="10"/>
       <c r="N10" s="13"/>
@@ -9634,35 +9634,35 @@
         <v>7</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D11" s="10" t="b">
         <v>1</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="M11" s="10"/>
       <c r="N11" s="13"/>
@@ -41707,299 +41707,299 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
+        <v>654</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>655</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="10" t="s">
         <v>656</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
+        <v>657</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>658</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="10" t="s">
         <v>659</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
+        <v>660</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>661</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="10" t="s">
         <v>662</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
+        <v>663</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>664</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B6" s="10" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B7" s="10" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B8" s="10" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B10" s="10" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B11" s="10" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B12" s="10" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B13" s="10" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B14" s="10" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B16" s="10" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="10" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" s="10" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21" s="10" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B22" s="10" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B23" s="10" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B24" s="10" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B25" s="10" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B26" s="10" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B27" s="10" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B28" s="10" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B29" s="10" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B30" s="10" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B31" s="10" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B32" s="10" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B33" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34" s="10" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B35" s="10" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B36" s="10" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B37" s="10" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B38" s="10" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B39" s="10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B40" s="10" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B41" s="10" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B42" s="10" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B43" s="10" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B44" s="10" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B45" s="10" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B46" s="10" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B47" s="10" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B48" s="10" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" s="10" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50" s="10" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B51" s="10" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B52" s="10" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B53" s="10" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B54" s="10" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
   </sheetData>
@@ -42076,858 +42076,858 @@
   <sheetData>
     <row r="1" spans="1:54" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D1" s="17" t="s">
+        <v>664</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>665</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>666</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>667</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>668</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>669</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="J1" s="17" t="s">
         <v>670</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="K1" s="17" t="s">
         <v>671</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="L1" s="17" t="s">
         <v>672</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="17" t="s">
         <v>673</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="N1" s="17" t="s">
         <v>674</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="O1" s="17" t="s">
         <v>675</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="P1" s="17" t="s">
         <v>676</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="Q1" s="17" t="s">
         <v>677</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="R1" s="17" t="s">
         <v>678</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="S1" s="17" t="s">
+        <v>664</v>
+      </c>
+      <c r="T1" s="17" t="s">
+        <v>680</v>
+      </c>
+      <c r="U1" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="V1" s="17" t="s">
         <v>679</v>
       </c>
-      <c r="S1" s="17" t="s">
-        <v>665</v>
-      </c>
-      <c r="T1" s="17" t="s">
-        <v>681</v>
-      </c>
-      <c r="U1" s="17" t="s">
+      <c r="W1" s="17" t="s">
         <v>682</v>
       </c>
-      <c r="V1" s="17" t="s">
-        <v>680</v>
-      </c>
-      <c r="W1" s="17" t="s">
+      <c r="X1" s="17" t="s">
         <v>683</v>
       </c>
-      <c r="X1" s="17" t="s">
+      <c r="Y1" s="17" t="s">
         <v>684</v>
       </c>
-      <c r="Y1" s="17" t="s">
+      <c r="Z1" s="17" t="s">
         <v>685</v>
       </c>
-      <c r="Z1" s="17" t="s">
+      <c r="AA1" s="17" t="s">
         <v>686</v>
       </c>
-      <c r="AA1" s="17" t="s">
+      <c r="AB1" s="17" t="s">
         <v>687</v>
       </c>
-      <c r="AB1" s="17" t="s">
+      <c r="AC1" s="17" t="s">
         <v>688</v>
       </c>
-      <c r="AC1" s="17" t="s">
+      <c r="AD1" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="AD1" s="17" t="s">
+      <c r="AE1" s="17" t="s">
         <v>690</v>
       </c>
-      <c r="AE1" s="17" t="s">
+      <c r="AF1" s="17" t="s">
         <v>691</v>
       </c>
-      <c r="AF1" s="17" t="s">
+      <c r="AG1" s="17" t="s">
+        <v>658</v>
+      </c>
+      <c r="AH1" s="17" t="s">
         <v>692</v>
       </c>
-      <c r="AG1" s="17" t="s">
-        <v>659</v>
-      </c>
-      <c r="AH1" s="17" t="s">
+      <c r="AI1" s="17" t="s">
         <v>693</v>
       </c>
-      <c r="AI1" s="17" t="s">
+      <c r="AJ1" s="17" t="s">
         <v>694</v>
       </c>
-      <c r="AJ1" s="17" t="s">
+      <c r="AK1" s="17" t="s">
         <v>695</v>
       </c>
-      <c r="AK1" s="17" t="s">
+      <c r="AL1" s="17" t="s">
         <v>696</v>
       </c>
-      <c r="AL1" s="17" t="s">
+      <c r="AM1" s="17" t="s">
         <v>697</v>
       </c>
-      <c r="AM1" s="17" t="s">
+      <c r="AN1" s="17" t="s">
         <v>698</v>
       </c>
-      <c r="AN1" s="17" t="s">
+      <c r="AO1" s="17" t="s">
         <v>699</v>
       </c>
-      <c r="AO1" s="17" t="s">
+      <c r="AP1" s="17" t="s">
         <v>700</v>
       </c>
-      <c r="AP1" s="17" t="s">
+      <c r="AQ1" s="17" t="s">
         <v>701</v>
       </c>
-      <c r="AQ1" s="17" t="s">
+      <c r="AR1" s="17" t="s">
         <v>702</v>
       </c>
-      <c r="AR1" s="17" t="s">
+      <c r="AS1" s="17" t="s">
         <v>703</v>
       </c>
-      <c r="AS1" s="17" t="s">
+      <c r="AT1" s="17" t="s">
         <v>704</v>
       </c>
-      <c r="AT1" s="17" t="s">
+      <c r="AU1" s="17" t="s">
         <v>705</v>
       </c>
-      <c r="AU1" s="17" t="s">
+      <c r="AV1" s="17" t="s">
         <v>706</v>
       </c>
-      <c r="AV1" s="17" t="s">
+      <c r="AW1" s="17" t="s">
         <v>707</v>
       </c>
-      <c r="AW1" s="17" t="s">
+      <c r="AX1" s="17" t="s">
         <v>708</v>
       </c>
-      <c r="AX1" s="17" t="s">
+      <c r="AY1" s="17" t="s">
         <v>709</v>
       </c>
-      <c r="AY1" s="17" t="s">
+      <c r="AZ1" s="17" t="s">
         <v>710</v>
       </c>
-      <c r="AZ1" s="17" t="s">
+      <c r="BA1" s="17" t="s">
         <v>711</v>
       </c>
-      <c r="BA1" s="17" t="s">
+      <c r="BB1" s="17" t="s">
         <v>712</v>
-      </c>
-      <c r="BB1" s="17" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="2" spans="1:54" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
+        <v>713</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>714</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="C2" s="18" t="s">
+        <v>713</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>715</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="E2" s="18" t="s">
+        <v>716</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>717</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>718</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>719</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>720</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>721</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>722</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>723</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>724</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>725</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>726</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>727</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>716</v>
+      </c>
+      <c r="R2" s="18" t="s">
+        <v>728</v>
+      </c>
+      <c r="S2" s="18" t="s">
+        <v>729</v>
+      </c>
+      <c r="T2" s="18" t="s">
+        <v>730</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>731</v>
+      </c>
+      <c r="V2" s="18" t="s">
+        <v>732</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>733</v>
+      </c>
+      <c r="X2" s="18" t="s">
+        <v>734</v>
+      </c>
+      <c r="Y2" s="18" t="s">
+        <v>735</v>
+      </c>
+      <c r="Z2" s="18" t="s">
+        <v>736</v>
+      </c>
+      <c r="AA2" s="18" t="s">
+        <v>737</v>
+      </c>
+      <c r="AB2" s="18" t="s">
+        <v>738</v>
+      </c>
+      <c r="AC2" s="18" t="s">
+        <v>739</v>
+      </c>
+      <c r="AD2" s="18" t="s">
+        <v>740</v>
+      </c>
+      <c r="AE2" s="18" t="s">
+        <v>741</v>
+      </c>
+      <c r="AF2" s="18" t="s">
+        <v>742</v>
+      </c>
+      <c r="AG2" s="18" t="s">
         <v>714</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="AH2" s="18" t="s">
+        <v>743</v>
+      </c>
+      <c r="AI2" s="18" t="s">
+        <v>744</v>
+      </c>
+      <c r="AJ2" s="18" t="s">
         <v>716</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>717</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>718</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>719</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>720</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>721</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>722</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>723</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>724</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>725</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>726</v>
-      </c>
-      <c r="O2" s="18" t="s">
-        <v>727</v>
-      </c>
-      <c r="P2" s="18" t="s">
-        <v>728</v>
-      </c>
-      <c r="Q2" s="18" t="s">
-        <v>717</v>
-      </c>
-      <c r="R2" s="18" t="s">
-        <v>729</v>
-      </c>
-      <c r="S2" s="18" t="s">
-        <v>730</v>
-      </c>
-      <c r="T2" s="18" t="s">
-        <v>731</v>
-      </c>
-      <c r="U2" s="18" t="s">
-        <v>732</v>
-      </c>
-      <c r="V2" s="18" t="s">
-        <v>733</v>
-      </c>
-      <c r="W2" s="18" t="s">
-        <v>734</v>
-      </c>
-      <c r="X2" s="18" t="s">
-        <v>735</v>
-      </c>
-      <c r="Y2" s="18" t="s">
-        <v>736</v>
-      </c>
-      <c r="Z2" s="18" t="s">
-        <v>737</v>
-      </c>
-      <c r="AA2" s="18" t="s">
-        <v>738</v>
-      </c>
-      <c r="AB2" s="18" t="s">
-        <v>739</v>
-      </c>
-      <c r="AC2" s="18" t="s">
-        <v>740</v>
-      </c>
-      <c r="AD2" s="18" t="s">
-        <v>741</v>
-      </c>
-      <c r="AE2" s="18" t="s">
-        <v>742</v>
-      </c>
-      <c r="AF2" s="18" t="s">
-        <v>743</v>
-      </c>
-      <c r="AG2" s="18" t="s">
-        <v>715</v>
-      </c>
-      <c r="AH2" s="18" t="s">
-        <v>744</v>
-      </c>
-      <c r="AI2" s="18" t="s">
+      <c r="AK2" s="18" t="s">
         <v>745</v>
       </c>
-      <c r="AJ2" s="18" t="s">
-        <v>717</v>
-      </c>
-      <c r="AK2" s="18" t="s">
+      <c r="AL2" s="18" t="s">
         <v>746</v>
       </c>
-      <c r="AL2" s="18" t="s">
+      <c r="AM2" s="18" t="s">
         <v>747</v>
       </c>
-      <c r="AM2" s="18" t="s">
+      <c r="AN2" s="18" t="s">
         <v>748</v>
       </c>
-      <c r="AN2" s="18" t="s">
+      <c r="AO2" s="18" t="s">
         <v>749</v>
       </c>
-      <c r="AO2" s="18" t="s">
+      <c r="AP2" s="18" t="s">
         <v>750</v>
       </c>
-      <c r="AP2" s="18" t="s">
+      <c r="AQ2" s="18" t="s">
         <v>751</v>
       </c>
-      <c r="AQ2" s="18" t="s">
+      <c r="AR2" s="18" t="s">
         <v>752</v>
       </c>
-      <c r="AR2" s="18" t="s">
+      <c r="AS2" s="18" t="s">
         <v>753</v>
       </c>
-      <c r="AS2" s="18" t="s">
+      <c r="AT2" s="18" t="s">
         <v>754</v>
       </c>
-      <c r="AT2" s="18" t="s">
+      <c r="AU2" s="18" t="s">
         <v>755</v>
       </c>
-      <c r="AU2" s="18" t="s">
+      <c r="AV2" s="18" t="s">
         <v>756</v>
       </c>
-      <c r="AV2" s="18" t="s">
+      <c r="AW2" s="18" t="s">
         <v>757</v>
       </c>
-      <c r="AW2" s="18" t="s">
+      <c r="AX2" s="18" t="s">
         <v>758</v>
       </c>
-      <c r="AX2" s="18" t="s">
+      <c r="AY2" s="18" t="s">
         <v>759</v>
       </c>
-      <c r="AY2" s="18" t="s">
+      <c r="AZ2" s="18" t="s">
         <v>760</v>
       </c>
-      <c r="AZ2" s="18" t="s">
+      <c r="BA2" s="18" t="s">
         <v>761</v>
       </c>
-      <c r="BA2" s="18" t="s">
+      <c r="BB2" s="18" t="s">
         <v>762</v>
-      </c>
-      <c r="BB2" s="18" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>765</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>766</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>767</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>768</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>771</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>772</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>773</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>775</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="6" t="s">
         <v>777</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="U3" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="Y3" s="2" t="s">
         <v>781</v>
       </c>
-      <c r="X3" s="2" t="s">
-        <v>781</v>
-      </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AD3" s="6" t="s">
         <v>786</v>
       </c>
-      <c r="AD3" s="6" t="s">
+      <c r="AE3" s="6" t="s">
         <v>787</v>
       </c>
-      <c r="AE3" s="6" t="s">
+      <c r="AF3" s="6" t="s">
         <v>788</v>
       </c>
-      <c r="AF3" s="6" t="s">
+      <c r="AG3" s="6" t="s">
         <v>789</v>
       </c>
-      <c r="AG3" s="6" t="s">
+      <c r="AH3" s="6" t="s">
         <v>790</v>
       </c>
-      <c r="AH3" s="6" t="s">
+      <c r="AI3" s="6" t="s">
         <v>791</v>
       </c>
-      <c r="AI3" s="6" t="s">
+      <c r="AJ3" s="6" t="s">
         <v>792</v>
       </c>
-      <c r="AJ3" s="6" t="s">
+      <c r="AK3" s="6" t="s">
         <v>793</v>
       </c>
-      <c r="AK3" s="6" t="s">
+      <c r="AL3" s="6" t="s">
         <v>794</v>
       </c>
-      <c r="AL3" s="6" t="s">
+      <c r="AM3" s="6" t="s">
         <v>795</v>
       </c>
-      <c r="AM3" s="6" t="s">
+      <c r="AN3" s="6" t="s">
         <v>796</v>
       </c>
-      <c r="AN3" s="6" t="s">
+      <c r="AO3" s="6" t="s">
         <v>797</v>
       </c>
-      <c r="AO3" s="6" t="s">
+      <c r="AP3" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="AQ3" s="6" t="s">
         <v>798</v>
       </c>
-      <c r="AP3" s="6" t="s">
-        <v>748</v>
-      </c>
-      <c r="AQ3" s="6" t="s">
+      <c r="AR3" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="AS3" s="6" t="s">
         <v>799</v>
       </c>
-      <c r="AR3" s="6" t="s">
-        <v>799</v>
-      </c>
-      <c r="AS3" s="6" t="s">
+      <c r="AT3" s="6" t="s">
         <v>800</v>
       </c>
-      <c r="AT3" s="6" t="s">
+      <c r="AV3" s="6" t="s">
         <v>801</v>
       </c>
-      <c r="AV3" s="6" t="s">
+      <c r="AW3" s="6" t="s">
         <v>802</v>
       </c>
-      <c r="AW3" s="6" t="s">
+      <c r="AX3" s="6" t="s">
         <v>803</v>
       </c>
-      <c r="AX3" s="6" t="s">
+      <c r="AY3" s="6" t="s">
         <v>804</v>
       </c>
-      <c r="AY3" s="6" t="s">
+      <c r="AZ3" s="6" t="s">
         <v>805</v>
       </c>
-      <c r="AZ3" s="6" t="s">
+      <c r="BB3" s="6" t="s">
         <v>806</v>
-      </c>
-      <c r="BB3" s="6" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="4" spans="1:54" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
+        <v>807</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>807</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>808</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>808</v>
-      </c>
-      <c r="E4" s="18" t="s">
+      <c r="F4" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="H4" s="18" t="s">
         <v>810</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="I4" s="18" t="s">
         <v>811</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="J4" s="18" t="s">
         <v>812</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="K4" s="18" t="s">
         <v>813</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="L4" s="18" t="s">
         <v>814</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="M4" s="18" t="s">
         <v>815</v>
       </c>
-      <c r="M4" s="18" t="s">
+      <c r="N4" s="18" t="s">
         <v>816</v>
       </c>
-      <c r="N4" s="18" t="s">
+      <c r="P4" s="18" t="s">
         <v>817</v>
       </c>
-      <c r="P4" s="18" t="s">
+      <c r="Q4" s="18" t="s">
         <v>818</v>
       </c>
-      <c r="Q4" s="18" t="s">
+      <c r="R4" s="18" t="s">
         <v>819</v>
       </c>
-      <c r="R4" s="18" t="s">
+      <c r="S4" s="18" t="s">
+        <v>715</v>
+      </c>
+      <c r="T4" s="18" t="s">
         <v>820</v>
       </c>
-      <c r="S4" s="18" t="s">
-        <v>716</v>
-      </c>
-      <c r="T4" s="18" t="s">
+      <c r="U4" s="18" t="s">
         <v>821</v>
       </c>
-      <c r="U4" s="18" t="s">
+      <c r="V4" s="18" t="s">
         <v>822</v>
       </c>
-      <c r="V4" s="18" t="s">
+      <c r="W4" s="18" t="s">
         <v>823</v>
       </c>
-      <c r="W4" s="18" t="s">
+      <c r="X4" s="18" t="s">
         <v>824</v>
       </c>
-      <c r="X4" s="18" t="s">
+      <c r="Y4" s="18" t="s">
         <v>825</v>
       </c>
-      <c r="Y4" s="18" t="s">
+      <c r="Z4" s="18" t="s">
         <v>826</v>
       </c>
-      <c r="Z4" s="18" t="s">
+      <c r="AA4" s="18" t="s">
         <v>827</v>
       </c>
-      <c r="AA4" s="18" t="s">
+      <c r="AB4" s="18" t="s">
         <v>828</v>
       </c>
-      <c r="AB4" s="18" t="s">
+      <c r="AC4" s="18" t="s">
         <v>829</v>
       </c>
-      <c r="AC4" s="18" t="s">
+      <c r="AD4" s="18" t="s">
         <v>830</v>
       </c>
-      <c r="AD4" s="18" t="s">
+      <c r="AF4" s="18" t="s">
         <v>831</v>
       </c>
-      <c r="AF4" s="18" t="s">
+      <c r="AG4" s="18" t="s">
         <v>832</v>
       </c>
-      <c r="AG4" s="18" t="s">
+      <c r="AH4" s="18" t="s">
         <v>833</v>
       </c>
-      <c r="AH4" s="18" t="s">
+      <c r="AI4" s="18" t="s">
         <v>834</v>
       </c>
-      <c r="AI4" s="18" t="s">
+      <c r="AJ4" s="18" t="s">
         <v>835</v>
       </c>
-      <c r="AJ4" s="18" t="s">
+      <c r="AK4" s="18" t="s">
         <v>836</v>
       </c>
-      <c r="AK4" s="18" t="s">
+      <c r="AL4" s="18" t="s">
         <v>837</v>
       </c>
-      <c r="AL4" s="18" t="s">
+      <c r="AM4" s="18" t="s">
         <v>838</v>
       </c>
-      <c r="AM4" s="18" t="s">
+      <c r="AN4" s="18" t="s">
         <v>839</v>
       </c>
-      <c r="AN4" s="18" t="s">
+      <c r="AO4" s="18" t="s">
         <v>840</v>
       </c>
-      <c r="AO4" s="18" t="s">
+      <c r="AP4" s="18" t="s">
         <v>841</v>
       </c>
-      <c r="AP4" s="18" t="s">
+      <c r="AQ4" s="18" t="s">
+        <v>722</v>
+      </c>
+      <c r="AR4" s="18" t="s">
+        <v>722</v>
+      </c>
+      <c r="AS4" s="18" t="s">
         <v>842</v>
       </c>
-      <c r="AQ4" s="18" t="s">
-        <v>723</v>
-      </c>
-      <c r="AR4" s="18" t="s">
-        <v>723</v>
-      </c>
-      <c r="AS4" s="18" t="s">
+      <c r="AT4" s="18" t="s">
         <v>843</v>
       </c>
-      <c r="AT4" s="18" t="s">
+      <c r="AV4" s="18" t="s">
         <v>844</v>
       </c>
-      <c r="AV4" s="18" t="s">
+      <c r="AW4" s="18" t="s">
         <v>845</v>
       </c>
-      <c r="AW4" s="18" t="s">
+      <c r="AX4" s="18" t="s">
         <v>846</v>
       </c>
-      <c r="AX4" s="18" t="s">
+      <c r="AY4" s="18" t="s">
         <v>847</v>
       </c>
-      <c r="AY4" s="18" t="s">
+      <c r="AZ4" s="18" t="s">
         <v>848</v>
       </c>
-      <c r="AZ4" s="18" t="s">
+      <c r="BB4" s="18" t="s">
         <v>849</v>
-      </c>
-      <c r="BB4" s="18" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>853</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>854</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>857</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>858</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>859</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="Q5" s="2" t="s">
         <v>860</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>861</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>862</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="6" t="s">
+        <v>862</v>
+      </c>
+      <c r="U5" s="2" t="s">
         <v>863</v>
       </c>
-      <c r="U5" s="2" t="s">
+      <c r="V5" s="2" t="s">
         <v>864</v>
       </c>
-      <c r="V5" s="2" t="s">
+      <c r="W5" s="2" t="s">
         <v>865</v>
       </c>
-      <c r="W5" s="2" t="s">
+      <c r="X5" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="Y5" s="2" t="s">
         <v>866</v>
       </c>
-      <c r="X5" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="Y5" s="2" t="s">
+      <c r="Z5" s="2" t="s">
         <v>867</v>
       </c>
-      <c r="Z5" s="2" t="s">
+      <c r="AA5" s="2" t="s">
         <v>868</v>
       </c>
-      <c r="AA5" s="2" t="s">
+      <c r="AB5" s="2" t="s">
         <v>869</v>
       </c>
-      <c r="AB5" s="2" t="s">
+      <c r="AC5" s="2" t="s">
         <v>870</v>
       </c>
-      <c r="AC5" s="2" t="s">
+      <c r="AD5" s="6" t="s">
         <v>871</v>
       </c>
-      <c r="AD5" s="6" t="s">
+      <c r="AF5" s="6" t="s">
         <v>872</v>
       </c>
-      <c r="AF5" s="6" t="s">
+      <c r="AG5" s="6" t="s">
         <v>873</v>
       </c>
-      <c r="AG5" s="6" t="s">
+      <c r="AH5" s="6" t="s">
         <v>874</v>
       </c>
-      <c r="AH5" s="6" t="s">
+      <c r="AJ5" s="6" t="s">
         <v>875</v>
       </c>
-      <c r="AJ5" s="6" t="s">
+      <c r="AK5" s="6" t="s">
         <v>876</v>
       </c>
-      <c r="AK5" s="6" t="s">
+      <c r="AL5" s="6" t="s">
         <v>877</v>
       </c>
-      <c r="AL5" s="6" t="s">
+      <c r="AM5" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="AN5" s="6" t="s">
         <v>878</v>
       </c>
-      <c r="AM5" s="6" t="s">
-        <v>723</v>
-      </c>
-      <c r="AN5" s="6" t="s">
+      <c r="AO5" s="6" t="s">
         <v>879</v>
       </c>
-      <c r="AO5" s="6" t="s">
+      <c r="AP5" s="6" t="s">
         <v>880</v>
       </c>
-      <c r="AP5" s="6" t="s">
+      <c r="AQ5" s="6" t="s">
         <v>881</v>
       </c>
-      <c r="AQ5" s="6" t="s">
+      <c r="AR5" s="6" t="s">
+        <v>881</v>
+      </c>
+      <c r="AS5" s="6" t="s">
         <v>882</v>
       </c>
-      <c r="AR5" s="6" t="s">
-        <v>882</v>
-      </c>
-      <c r="AS5" s="6" t="s">
+      <c r="AT5" s="6" t="s">
         <v>883</v>
       </c>
-      <c r="AT5" s="6" t="s">
+      <c r="AV5" s="6" t="s">
         <v>884</v>
       </c>
-      <c r="AV5" s="6" t="s">
+      <c r="AW5" s="6" t="s">
         <v>885</v>
       </c>
-      <c r="AW5" s="6" t="s">
+      <c r="AX5" s="6" t="s">
         <v>886</v>
       </c>
-      <c r="AX5" s="6" t="s">
+      <c r="AZ5" s="6" t="s">
         <v>887</v>
       </c>
-      <c r="AZ5" s="6" t="s">
+      <c r="BB5" s="6" t="s">
         <v>888</v>
-      </c>
-      <c r="BB5" s="6" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="6" spans="1:54" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C6" s="18" t="s">
+        <v>889</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>890</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="H6" s="18" t="s">
         <v>891</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="I6" s="18" t="s">
         <v>892</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="J6" s="18" t="s">
         <v>893</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="K6" s="18" t="s">
         <v>894</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="L6" s="18" t="s">
         <v>895</v>
       </c>
-      <c r="L6" s="18" t="s">
+      <c r="M6" s="18" t="s">
         <v>896</v>
       </c>
-      <c r="M6" s="18" t="s">
+      <c r="N6" s="18" t="s">
         <v>897</v>
       </c>
-      <c r="N6" s="18" t="s">
+      <c r="P6" s="18" t="s">
         <v>898</v>
       </c>
-      <c r="P6" s="18" t="s">
+      <c r="Q6" s="18" t="s">
         <v>899</v>
       </c>
-      <c r="Q6" s="18" t="s">
+      <c r="U6" s="18" t="s">
         <v>900</v>
       </c>
-      <c r="U6" s="18" t="s">
+      <c r="V6" s="18" t="s">
         <v>901</v>
       </c>
-      <c r="V6" s="18" t="s">
+      <c r="W6" s="18" t="s">
+        <v>716</v>
+      </c>
+      <c r="X6" s="18" t="s">
+        <v>716</v>
+      </c>
+      <c r="Y6" s="18" t="s">
         <v>902</v>
       </c>
-      <c r="W6" s="18" t="s">
-        <v>717</v>
-      </c>
-      <c r="X6" s="18" t="s">
-        <v>717</v>
-      </c>
-      <c r="Y6" s="18" t="s">
+      <c r="Z6" s="18" t="s">
         <v>903</v>
       </c>
-      <c r="Z6" s="18" t="s">
+      <c r="AF6" s="18" t="s">
         <v>904</v>
       </c>
-      <c r="AF6" s="18" t="s">
+      <c r="AH6" s="18" t="s">
         <v>905</v>
       </c>
-      <c r="AH6" s="18" t="s">
+      <c r="AJ6" s="18" t="s">
         <v>906</v>
       </c>
-      <c r="AJ6" s="18" t="s">
+      <c r="AK6" s="18" t="s">
         <v>907</v>
       </c>
-      <c r="AK6" s="18" t="s">
+      <c r="AL6" s="18" t="s">
         <v>908</v>
       </c>
-      <c r="AL6" s="18" t="s">
+      <c r="AM6" s="18" t="s">
+        <v>769</v>
+      </c>
+      <c r="AN6" s="18" t="s">
         <v>909</v>
       </c>
-      <c r="AM6" s="18" t="s">
-        <v>770</v>
-      </c>
-      <c r="AN6" s="18" t="s">
+      <c r="AO6" s="18" t="s">
         <v>910</v>
       </c>
-      <c r="AO6" s="18" t="s">
+      <c r="AP6" s="18" t="s">
         <v>911</v>
       </c>
-      <c r="AP6" s="18" t="s">
+      <c r="AQ6" s="18" t="s">
+        <v>769</v>
+      </c>
+      <c r="AR6" s="18" t="s">
+        <v>769</v>
+      </c>
+      <c r="AS6" s="18" t="s">
         <v>912</v>
       </c>
-      <c r="AQ6" s="18" t="s">
-        <v>770</v>
-      </c>
-      <c r="AR6" s="18" t="s">
-        <v>770</v>
-      </c>
-      <c r="AS6" s="18" t="s">
+      <c r="AT6" s="18" t="s">
         <v>913</v>
       </c>
-      <c r="AT6" s="18" t="s">
+      <c r="AW6" s="18" t="s">
         <v>914</v>
       </c>
-      <c r="AW6" s="18" t="s">
+      <c r="AX6" s="18" t="s">
         <v>915</v>
-      </c>
-      <c r="AX6" s="18" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.35">
@@ -42936,903 +42936,903 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="6" t="s">
+        <v>917</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>918</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="K7" s="2" t="s">
         <v>919</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>920</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>921</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>922</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>923</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="U7" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="V7" s="2"/>
       <c r="W7" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
       <c r="AH7" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="AJ7" s="6" t="s">
         <v>926</v>
       </c>
-      <c r="AJ7" s="6" t="s">
+      <c r="AK7" s="6" t="s">
         <v>927</v>
       </c>
-      <c r="AK7" s="6" t="s">
+      <c r="AM7" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="AM7" s="6" t="s">
+      <c r="AO7" s="6" t="s">
         <v>929</v>
       </c>
-      <c r="AO7" s="6" t="s">
+      <c r="AP7" s="6" t="s">
+        <v>835</v>
+      </c>
+      <c r="AQ7" s="6" t="s">
         <v>930</v>
       </c>
-      <c r="AP7" s="6" t="s">
-        <v>836</v>
-      </c>
-      <c r="AQ7" s="6" t="s">
+      <c r="AR7" s="6" t="s">
+        <v>930</v>
+      </c>
+      <c r="AS7" s="6" t="s">
         <v>931</v>
       </c>
-      <c r="AR7" s="6" t="s">
-        <v>931</v>
-      </c>
-      <c r="AS7" s="6" t="s">
+      <c r="AT7" s="6" t="s">
         <v>932</v>
       </c>
-      <c r="AT7" s="6" t="s">
+      <c r="AW7" s="6" t="s">
         <v>933</v>
       </c>
-      <c r="AW7" s="6" t="s">
+      <c r="AX7" s="6" t="s">
         <v>934</v>
-      </c>
-      <c r="AX7" s="6" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="8" spans="1:54" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E8" s="18" t="s">
+        <v>935</v>
+      </c>
+      <c r="J8" s="18" t="s">
         <v>936</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="K8" s="18" t="s">
         <v>937</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="L8" s="18" t="s">
         <v>938</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="M8" s="18" t="s">
         <v>939</v>
       </c>
-      <c r="M8" s="18" t="s">
+      <c r="N8" s="18" t="s">
         <v>940</v>
       </c>
-      <c r="N8" s="18" t="s">
+      <c r="P8" s="18" t="s">
         <v>941</v>
       </c>
-      <c r="P8" s="18" t="s">
+      <c r="U8" s="18" t="s">
         <v>942</v>
       </c>
-      <c r="U8" s="18" t="s">
+      <c r="W8" s="18" t="s">
         <v>943</v>
       </c>
-      <c r="W8" s="18" t="s">
+      <c r="X8" s="18" t="s">
         <v>944</v>
       </c>
-      <c r="X8" s="18" t="s">
+      <c r="Y8" s="18" t="s">
+        <v>780</v>
+      </c>
+      <c r="AH8" s="18" t="s">
         <v>945</v>
       </c>
-      <c r="Y8" s="18" t="s">
-        <v>781</v>
-      </c>
-      <c r="AH8" s="18" t="s">
+      <c r="AK8" s="18" t="s">
         <v>946</v>
       </c>
-      <c r="AK8" s="18" t="s">
+      <c r="AM8" s="18" t="s">
+        <v>813</v>
+      </c>
+      <c r="AO8" s="18" t="s">
         <v>947</v>
       </c>
-      <c r="AM8" s="18" t="s">
-        <v>814</v>
-      </c>
-      <c r="AO8" s="18" t="s">
+      <c r="AP8" s="18" t="s">
         <v>948</v>
       </c>
-      <c r="AP8" s="18" t="s">
+      <c r="AW8" s="18" t="s">
         <v>949</v>
       </c>
-      <c r="AW8" s="18" t="s">
+      <c r="AX8" s="18" t="s">
         <v>950</v>
-      </c>
-      <c r="AX8" s="18" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="9" spans="1:54" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E9" s="6" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="J9" s="6" t="s">
+        <v>951</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>952</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="L9" s="6" t="s">
         <v>953</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="M9" s="6" t="s">
         <v>954</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="N9" s="6" t="s">
         <v>955</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="P9" s="6" t="s">
         <v>956</v>
       </c>
-      <c r="P9" s="6" t="s">
+      <c r="U9" s="6" t="s">
         <v>957</v>
       </c>
-      <c r="U9" s="6" t="s">
+      <c r="W9" s="6" t="s">
+        <v>944</v>
+      </c>
+      <c r="X9" s="6" t="s">
+        <v>825</v>
+      </c>
+      <c r="Y9" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="W9" s="6" t="s">
-        <v>945</v>
-      </c>
-      <c r="X9" s="6" t="s">
-        <v>826</v>
-      </c>
-      <c r="Y9" s="6" t="s">
+      <c r="AH9" s="6" t="s">
         <v>959</v>
       </c>
-      <c r="AH9" s="6" t="s">
+      <c r="AK9" s="6" t="s">
         <v>960</v>
       </c>
-      <c r="AK9" s="6" t="s">
+      <c r="AM9" s="6" t="s">
+        <v>855</v>
+      </c>
+      <c r="AP9" s="6" t="s">
         <v>961</v>
       </c>
-      <c r="AM9" s="6" t="s">
-        <v>856</v>
-      </c>
-      <c r="AP9" s="6" t="s">
+      <c r="AW9" s="6" t="s">
         <v>962</v>
       </c>
-      <c r="AW9" s="6" t="s">
+      <c r="AX9" s="6" t="s">
         <v>963</v>
-      </c>
-      <c r="AX9" s="6" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="10" spans="1:54" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E10" s="18" t="s">
+        <v>964</v>
+      </c>
+      <c r="J10" s="18" t="s">
         <v>965</v>
       </c>
-      <c r="J10" s="18" t="s">
+      <c r="K10" s="18" t="s">
         <v>966</v>
       </c>
-      <c r="K10" s="18" t="s">
+      <c r="L10" s="18" t="s">
+        <v>857</v>
+      </c>
+      <c r="M10" s="18" t="s">
         <v>967</v>
       </c>
-      <c r="L10" s="18" t="s">
-        <v>858</v>
-      </c>
-      <c r="M10" s="18" t="s">
+      <c r="N10" s="18" t="s">
         <v>968</v>
       </c>
-      <c r="N10" s="18" t="s">
+      <c r="U10" s="18" t="s">
         <v>969</v>
       </c>
-      <c r="U10" s="18" t="s">
+      <c r="W10" s="18" t="s">
+        <v>825</v>
+      </c>
+      <c r="X10" s="18" t="s">
         <v>970</v>
       </c>
-      <c r="W10" s="18" t="s">
-        <v>826</v>
-      </c>
-      <c r="X10" s="18" t="s">
+      <c r="Y10" s="18" t="s">
+        <v>818</v>
+      </c>
+      <c r="AH10" s="18" t="s">
         <v>971</v>
       </c>
-      <c r="Y10" s="18" t="s">
-        <v>819</v>
-      </c>
-      <c r="AH10" s="18" t="s">
+      <c r="AM10" s="18" t="s">
         <v>972</v>
       </c>
-      <c r="AM10" s="18" t="s">
+      <c r="AP10" s="18" t="s">
         <v>973</v>
       </c>
-      <c r="AP10" s="18" t="s">
+      <c r="AW10" s="18" t="s">
         <v>974</v>
       </c>
-      <c r="AW10" s="18" t="s">
+      <c r="AX10" s="18" t="s">
         <v>975</v>
-      </c>
-      <c r="AX10" s="18" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="11" spans="1:54" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E11" s="6" t="s">
+        <v>976</v>
+      </c>
+      <c r="J11" s="6" t="s">
         <v>977</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="K11" s="6" t="s">
         <v>978</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="L11" s="6" t="s">
+        <v>896</v>
+      </c>
+      <c r="M11" s="6" t="s">
         <v>979</v>
       </c>
-      <c r="L11" s="6" t="s">
-        <v>897</v>
-      </c>
-      <c r="M11" s="6" t="s">
+      <c r="N11" s="6" t="s">
         <v>980</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="U11" s="6" t="s">
         <v>981</v>
       </c>
-      <c r="U11" s="6" t="s">
+      <c r="W11" s="6" t="s">
         <v>982</v>
       </c>
-      <c r="W11" s="6" t="s">
+      <c r="X11" s="6" t="s">
         <v>983</v>
       </c>
-      <c r="X11" s="6" t="s">
+      <c r="Y11" s="6" t="s">
         <v>984</v>
       </c>
-      <c r="Y11" s="6" t="s">
+      <c r="AH11" s="6" t="s">
         <v>985</v>
       </c>
-      <c r="AH11" s="6" t="s">
+      <c r="AM11" s="6" t="s">
         <v>986</v>
       </c>
-      <c r="AM11" s="6" t="s">
+      <c r="AP11" s="6" t="s">
         <v>987</v>
       </c>
-      <c r="AP11" s="6" t="s">
+      <c r="AW11" s="6" t="s">
         <v>988</v>
       </c>
-      <c r="AW11" s="6" t="s">
+      <c r="AX11" s="6" t="s">
         <v>989</v>
-      </c>
-      <c r="AX11" s="6" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="12" spans="1:54" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="J12" s="18" t="s">
+        <v>990</v>
+      </c>
+      <c r="K12" s="18" t="s">
         <v>991</v>
       </c>
-      <c r="K12" s="18" t="s">
+      <c r="L12" s="18" t="s">
+        <v>921</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>919</v>
+      </c>
+      <c r="N12" s="18" t="s">
         <v>992</v>
       </c>
-      <c r="L12" s="18" t="s">
-        <v>922</v>
-      </c>
-      <c r="M12" s="18" t="s">
-        <v>920</v>
-      </c>
-      <c r="N12" s="18" t="s">
+      <c r="U12" s="18" t="s">
+        <v>835</v>
+      </c>
+      <c r="W12" s="18" t="s">
         <v>993</v>
       </c>
-      <c r="U12" s="18" t="s">
-        <v>836</v>
-      </c>
-      <c r="W12" s="18" t="s">
+      <c r="X12" s="18" t="s">
         <v>994</v>
       </c>
-      <c r="X12" s="18" t="s">
+      <c r="Y12" s="18" t="s">
         <v>995</v>
       </c>
-      <c r="Y12" s="18" t="s">
+      <c r="AH12" s="18" t="s">
         <v>996</v>
       </c>
-      <c r="AH12" s="18" t="s">
+      <c r="AM12" s="18" t="s">
         <v>997</v>
       </c>
-      <c r="AM12" s="18" t="s">
+      <c r="AP12" s="18" t="s">
         <v>998</v>
       </c>
-      <c r="AP12" s="18" t="s">
+      <c r="AW12" s="18" t="s">
         <v>999</v>
       </c>
-      <c r="AW12" s="18" t="s">
+      <c r="AX12" s="18" t="s">
         <v>1000</v>
-      </c>
-      <c r="AX12" s="18" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="13" spans="1:54" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J13" s="6" t="s">
+        <v>1001</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>939</v>
+      </c>
+      <c r="M13" s="6" t="s">
         <v>1002</v>
       </c>
-      <c r="L13" s="6" t="s">
-        <v>940</v>
-      </c>
-      <c r="M13" s="6" t="s">
+      <c r="N13" s="6" t="s">
         <v>1003</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="U13" s="6" t="s">
+        <v>948</v>
+      </c>
+      <c r="W13" s="6" t="s">
         <v>1004</v>
       </c>
-      <c r="U13" s="6" t="s">
-        <v>949</v>
-      </c>
-      <c r="W13" s="6" t="s">
+      <c r="X13" s="6" t="s">
         <v>1005</v>
       </c>
-      <c r="X13" s="6" t="s">
+      <c r="Y13" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="Y13" s="6" t="s">
+      <c r="AH13" s="6" t="s">
         <v>1007</v>
       </c>
-      <c r="AH13" s="6" t="s">
+      <c r="AM13" s="6" t="s">
         <v>1008</v>
       </c>
-      <c r="AM13" s="6" t="s">
+      <c r="AP13" s="6" t="s">
         <v>1009</v>
       </c>
-      <c r="AP13" s="6" t="s">
+      <c r="AW13" s="6" t="s">
         <v>1010</v>
       </c>
-      <c r="AW13" s="6" t="s">
+      <c r="AX13" s="6" t="s">
         <v>1011</v>
-      </c>
-      <c r="AX13" s="6" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="14" spans="1:54" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="L14" s="18" t="s">
+        <v>1012</v>
+      </c>
+      <c r="M14" s="18" t="s">
         <v>1013</v>
       </c>
-      <c r="M14" s="18" t="s">
+      <c r="N14" s="18" t="s">
         <v>1014</v>
       </c>
-      <c r="N14" s="18" t="s">
+      <c r="U14" s="18" t="s">
+        <v>961</v>
+      </c>
+      <c r="W14" s="18" t="s">
+        <v>970</v>
+      </c>
+      <c r="X14" s="18" t="s">
         <v>1015</v>
       </c>
-      <c r="U14" s="18" t="s">
-        <v>962</v>
-      </c>
-      <c r="W14" s="18" t="s">
-        <v>971</v>
-      </c>
-      <c r="X14" s="18" t="s">
+      <c r="Y14" s="18" t="s">
         <v>1016</v>
       </c>
-      <c r="Y14" s="18" t="s">
+      <c r="AH14" s="18" t="s">
         <v>1017</v>
       </c>
-      <c r="AH14" s="18" t="s">
+      <c r="AM14" s="18" t="s">
         <v>1018</v>
       </c>
-      <c r="AM14" s="18" t="s">
+      <c r="AP14" s="18" t="s">
         <v>1019</v>
       </c>
-      <c r="AP14" s="18" t="s">
+      <c r="AW14" s="18" t="s">
         <v>1020</v>
       </c>
-      <c r="AW14" s="18" t="s">
+      <c r="AX14" s="18" t="s">
         <v>1021</v>
-      </c>
-      <c r="AX14" s="18" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="15" spans="1:54" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L15" s="6" t="s">
+        <v>1022</v>
+      </c>
+      <c r="M15" s="6" t="s">
         <v>1023</v>
       </c>
-      <c r="M15" s="6" t="s">
+      <c r="N15" s="6" t="s">
         <v>1024</v>
       </c>
-      <c r="N15" s="6" t="s">
+      <c r="W15" s="6" t="s">
+        <v>983</v>
+      </c>
+      <c r="X15" s="6" t="s">
         <v>1025</v>
       </c>
-      <c r="W15" s="6" t="s">
-        <v>984</v>
-      </c>
-      <c r="X15" s="6" t="s">
+      <c r="Y15" s="6" t="s">
         <v>1026</v>
       </c>
-      <c r="Y15" s="6" t="s">
+      <c r="AM15" s="6" t="s">
         <v>1027</v>
       </c>
-      <c r="AM15" s="6" t="s">
+      <c r="AP15" s="6" t="s">
         <v>1028</v>
       </c>
-      <c r="AP15" s="6" t="s">
+      <c r="AW15" s="6" t="s">
         <v>1029</v>
-      </c>
-      <c r="AW15" s="6" t="s">
-        <v>1030</v>
       </c>
     </row>
     <row r="16" spans="1:54" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="L16" s="18" t="s">
+        <v>1030</v>
+      </c>
+      <c r="M16" s="18" t="s">
         <v>1031</v>
       </c>
-      <c r="M16" s="18" t="s">
+      <c r="N16" s="18" t="s">
         <v>1032</v>
       </c>
-      <c r="N16" s="18" t="s">
+      <c r="W16" s="18" t="s">
+        <v>994</v>
+      </c>
+      <c r="X16" s="18" t="s">
+        <v>781</v>
+      </c>
+      <c r="Y16" s="18" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AM16" s="18" t="s">
         <v>1033</v>
       </c>
-      <c r="W16" s="18" t="s">
-        <v>995</v>
-      </c>
-      <c r="X16" s="18" t="s">
-        <v>782</v>
-      </c>
-      <c r="Y16" s="18" t="s">
-        <v>1006</v>
-      </c>
-      <c r="AM16" s="18" t="s">
+      <c r="AP16" s="18" t="s">
         <v>1034</v>
       </c>
-      <c r="AP16" s="18" t="s">
+      <c r="AW16" s="18" t="s">
         <v>1035</v>
-      </c>
-      <c r="AW16" s="18" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="17" spans="12:49" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L17" s="6" t="s">
+        <v>1036</v>
+      </c>
+      <c r="M17" s="6" t="s">
         <v>1037</v>
       </c>
-      <c r="M17" s="6" t="s">
+      <c r="N17" s="6" t="s">
         <v>1038</v>
       </c>
-      <c r="N17" s="6" t="s">
+      <c r="W17" s="6" t="s">
         <v>1039</v>
       </c>
-      <c r="W17" s="6" t="s">
+      <c r="X17" s="6" t="s">
         <v>1040</v>
       </c>
-      <c r="X17" s="6" t="s">
+      <c r="Y17" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="AM17" s="6" t="s">
         <v>1041</v>
       </c>
-      <c r="Y17" s="6" t="s">
-        <v>735</v>
-      </c>
-      <c r="AM17" s="6" t="s">
+      <c r="AP17" s="6" t="s">
         <v>1042</v>
       </c>
-      <c r="AP17" s="6" t="s">
+      <c r="AW17" s="6" t="s">
         <v>1043</v>
-      </c>
-      <c r="AW17" s="6" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="18" spans="12:49" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="L18" s="18" t="s">
+        <v>1044</v>
+      </c>
+      <c r="M18" s="18" t="s">
         <v>1045</v>
       </c>
-      <c r="M18" s="18" t="s">
+      <c r="N18" s="18" t="s">
         <v>1046</v>
       </c>
-      <c r="N18" s="18" t="s">
+      <c r="W18" s="18" t="s">
         <v>1047</v>
       </c>
-      <c r="W18" s="18" t="s">
+      <c r="X18" s="18" t="s">
         <v>1048</v>
       </c>
-      <c r="X18" s="18" t="s">
+      <c r="Y18" s="18" t="s">
         <v>1049</v>
       </c>
-      <c r="Y18" s="18" t="s">
+      <c r="AM18" s="18" t="s">
         <v>1050</v>
       </c>
-      <c r="AM18" s="18" t="s">
+      <c r="AP18" s="18" t="s">
         <v>1051</v>
       </c>
-      <c r="AP18" s="18" t="s">
+      <c r="AW18" s="18" t="s">
         <v>1052</v>
-      </c>
-      <c r="AW18" s="18" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="19" spans="12:49" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L19" s="6" t="s">
+        <v>1053</v>
+      </c>
+      <c r="M19" s="6" t="s">
         <v>1054</v>
       </c>
-      <c r="M19" s="6" t="s">
+      <c r="N19" s="6" t="s">
         <v>1055</v>
       </c>
-      <c r="N19" s="6" t="s">
+      <c r="W19" s="6" t="s">
+        <v>1040</v>
+      </c>
+      <c r="X19" s="6" t="s">
+        <v>1006</v>
+      </c>
+      <c r="Y19" s="6" t="s">
         <v>1056</v>
       </c>
-      <c r="W19" s="6" t="s">
-        <v>1041</v>
-      </c>
-      <c r="X19" s="6" t="s">
-        <v>1007</v>
-      </c>
-      <c r="Y19" s="6" t="s">
+      <c r="AM19" s="6" t="s">
         <v>1057</v>
       </c>
-      <c r="AM19" s="6" t="s">
+      <c r="AP19" s="6" t="s">
         <v>1058</v>
-      </c>
-      <c r="AP19" s="6" t="s">
-        <v>1059</v>
       </c>
     </row>
     <row r="20" spans="12:49" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="L20" s="18" t="s">
+        <v>1059</v>
+      </c>
+      <c r="M20" s="18" t="s">
         <v>1060</v>
       </c>
-      <c r="M20" s="18" t="s">
+      <c r="N20" s="18" t="s">
         <v>1061</v>
       </c>
-      <c r="N20" s="18" t="s">
+      <c r="W20" s="18" t="s">
+        <v>781</v>
+      </c>
+      <c r="X20" s="18" t="s">
+        <v>1016</v>
+      </c>
+      <c r="Y20" s="18" t="s">
         <v>1062</v>
       </c>
-      <c r="W20" s="18" t="s">
-        <v>782</v>
-      </c>
-      <c r="X20" s="18" t="s">
-        <v>1017</v>
-      </c>
-      <c r="Y20" s="18" t="s">
+      <c r="AM20" s="18" t="s">
         <v>1063</v>
       </c>
-      <c r="AM20" s="18" t="s">
+      <c r="AP20" s="18" t="s">
         <v>1064</v>
-      </c>
-      <c r="AP20" s="18" t="s">
-        <v>1065</v>
       </c>
     </row>
     <row r="21" spans="12:49" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L21" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="M21" s="6" t="s">
         <v>1066</v>
       </c>
-      <c r="M21" s="6" t="s">
+      <c r="N21" s="6" t="s">
         <v>1067</v>
       </c>
-      <c r="N21" s="6" t="s">
+      <c r="W21" s="6" t="s">
         <v>1068</v>
       </c>
-      <c r="W21" s="6" t="s">
+      <c r="X21" s="6" t="s">
+        <v>984</v>
+      </c>
+      <c r="Y21" s="6" t="s">
+        <v>1040</v>
+      </c>
+      <c r="AM21" s="6" t="s">
         <v>1069</v>
       </c>
-      <c r="X21" s="6" t="s">
-        <v>985</v>
-      </c>
-      <c r="Y21" s="6" t="s">
-        <v>1041</v>
-      </c>
-      <c r="AM21" s="6" t="s">
+      <c r="AP21" s="6" t="s">
         <v>1070</v>
-      </c>
-      <c r="AP21" s="6" t="s">
-        <v>1071</v>
       </c>
     </row>
     <row r="22" spans="12:49" s="18" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L22" s="18" t="s">
+        <v>1071</v>
+      </c>
+      <c r="N22" s="18" t="s">
         <v>1072</v>
       </c>
-      <c r="N22" s="18" t="s">
+      <c r="W22" s="18" t="s">
         <v>1073</v>
       </c>
-      <c r="W22" s="18" t="s">
+      <c r="X22" s="18" t="s">
+        <v>995</v>
+      </c>
+      <c r="Y22" s="18" t="s">
+        <v>1015</v>
+      </c>
+      <c r="AM22" s="18" t="s">
         <v>1074</v>
-      </c>
-      <c r="X22" s="18" t="s">
-        <v>996</v>
-      </c>
-      <c r="Y22" s="18" t="s">
-        <v>1016</v>
-      </c>
-      <c r="AM22" s="18" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="23" spans="12:49" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L23" s="6" t="s">
+        <v>1075</v>
+      </c>
+      <c r="N23" s="6" t="s">
         <v>1076</v>
       </c>
-      <c r="N23" s="6" t="s">
+      <c r="W23" s="6" t="s">
         <v>1077</v>
       </c>
-      <c r="W23" s="6" t="s">
+      <c r="X23" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="Y23" s="6" t="s">
+        <v>970</v>
+      </c>
+      <c r="AM23" s="6" t="s">
         <v>1078</v>
-      </c>
-      <c r="X23" s="6" t="s">
-        <v>819</v>
-      </c>
-      <c r="Y23" s="6" t="s">
-        <v>971</v>
-      </c>
-      <c r="AM23" s="6" t="s">
-        <v>1079</v>
       </c>
     </row>
     <row r="24" spans="12:49" s="18" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L24" s="18" t="s">
+        <v>1079</v>
+      </c>
+      <c r="N24" s="18" t="s">
         <v>1080</v>
       </c>
-      <c r="N24" s="18" t="s">
+      <c r="W24" s="18" t="s">
         <v>1081</v>
       </c>
-      <c r="W24" s="18" t="s">
-        <v>1082</v>
-      </c>
       <c r="X24" s="18" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="Y24" s="18" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="AM24" s="18" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="25" spans="12:49" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L25" s="6" t="s">
+        <v>1082</v>
+      </c>
+      <c r="N25" s="6" t="s">
         <v>1083</v>
       </c>
-      <c r="N25" s="6" t="s">
+      <c r="W25" s="6" t="s">
         <v>1084</v>
       </c>
-      <c r="W25" s="6" t="s">
+      <c r="X25" s="6" t="s">
+        <v>866</v>
+      </c>
+      <c r="Y25" s="6" t="s">
+        <v>944</v>
+      </c>
+      <c r="AM25" s="6" t="s">
         <v>1085</v>
-      </c>
-      <c r="X25" s="6" t="s">
-        <v>867</v>
-      </c>
-      <c r="Y25" s="6" t="s">
-        <v>945</v>
-      </c>
-      <c r="AM25" s="6" t="s">
-        <v>1086</v>
       </c>
     </row>
     <row r="26" spans="12:49" s="18" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L26" s="18" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N26" s="18" t="s">
+        <v>1086</v>
+      </c>
+      <c r="W26" s="18" t="s">
         <v>1087</v>
       </c>
-      <c r="W26" s="18" t="s">
+      <c r="X26" s="18" t="s">
+        <v>1062</v>
+      </c>
+      <c r="Y26" s="18" t="s">
         <v>1088</v>
       </c>
-      <c r="X26" s="18" t="s">
-        <v>1063</v>
-      </c>
-      <c r="Y26" s="18" t="s">
-        <v>1089</v>
-      </c>
       <c r="AM26" s="18" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="27" spans="12:49" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L27" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N27" s="6" t="s">
         <v>1090</v>
       </c>
-      <c r="N27" s="6" t="s">
+      <c r="W27" s="6" t="s">
         <v>1091</v>
       </c>
-      <c r="W27" s="6" t="s">
-        <v>1092</v>
-      </c>
       <c r="X27" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="Y27" s="6" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AM27" s="6" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="28" spans="12:49" s="18" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N28" s="18" t="s">
+        <v>1092</v>
+      </c>
+      <c r="W28" s="18" t="s">
         <v>1093</v>
       </c>
-      <c r="W28" s="18" t="s">
+      <c r="X28" s="18" t="s">
+        <v>1056</v>
+      </c>
+      <c r="Y28" s="18" t="s">
+        <v>994</v>
+      </c>
+      <c r="AM28" s="18" t="s">
         <v>1094</v>
-      </c>
-      <c r="X28" s="18" t="s">
-        <v>1057</v>
-      </c>
-      <c r="Y28" s="18" t="s">
-        <v>995</v>
-      </c>
-      <c r="AM28" s="18" t="s">
-        <v>1095</v>
       </c>
     </row>
     <row r="29" spans="12:49" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N29" s="6" t="s">
+        <v>1095</v>
+      </c>
+      <c r="W29" s="6" t="s">
+        <v>1048</v>
+      </c>
+      <c r="Y29" s="6" t="s">
         <v>1096</v>
       </c>
-      <c r="W29" s="6" t="s">
-        <v>1049</v>
-      </c>
-      <c r="Y29" s="6" t="s">
+      <c r="AM29" s="6" t="s">
         <v>1097</v>
-      </c>
-      <c r="AM29" s="6" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row r="30" spans="12:49" s="18" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N30" s="18" t="s">
+        <v>1098</v>
+      </c>
+      <c r="W30" s="18" t="s">
         <v>1099</v>
       </c>
-      <c r="W30" s="18" t="s">
+      <c r="Y30" s="18" t="s">
         <v>1100</v>
       </c>
-      <c r="Y30" s="18" t="s">
+      <c r="AM30" s="18" t="s">
         <v>1101</v>
-      </c>
-      <c r="AM30" s="18" t="s">
-        <v>1102</v>
       </c>
     </row>
     <row r="31" spans="12:49" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W31" s="6" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Y31" s="6" t="s">
         <v>1103</v>
       </c>
-      <c r="Y31" s="6" t="s">
-        <v>1104</v>
-      </c>
       <c r="AM31" s="6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="32" spans="12:49" s="18" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W32" s="18" t="s">
+        <v>1104</v>
+      </c>
+      <c r="Y32" s="18" t="s">
+        <v>1025</v>
+      </c>
+      <c r="AM32" s="18" t="s">
         <v>1105</v>
-      </c>
-      <c r="Y32" s="18" t="s">
-        <v>1026</v>
-      </c>
-      <c r="AM32" s="18" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="33" spans="23:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W33" s="6" t="s">
+        <v>1106</v>
+      </c>
+      <c r="AM33" s="6" t="s">
         <v>1107</v>
-      </c>
-      <c r="AM33" s="6" t="s">
-        <v>1108</v>
       </c>
     </row>
     <row r="34" spans="23:39" s="18" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W34" s="18" t="s">
+        <v>1108</v>
+      </c>
+      <c r="AM34" s="18" t="s">
         <v>1109</v>
-      </c>
-      <c r="AM34" s="18" t="s">
-        <v>1110</v>
       </c>
     </row>
     <row r="35" spans="23:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W35" s="6" t="s">
+        <v>1110</v>
+      </c>
+      <c r="AM35" s="6" t="s">
         <v>1111</v>
-      </c>
-      <c r="AM35" s="6" t="s">
-        <v>1112</v>
       </c>
     </row>
     <row r="36" spans="23:39" s="18" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W36" s="18" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AM36" s="18" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="37" spans="23:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W37" s="6" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AM37" s="6" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="38" spans="23:39" s="18" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W38" s="18" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="AM38" s="18" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="39" spans="23:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W39" s="6" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="AM39" s="6" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="40" spans="23:39" s="18" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W40" s="18" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="AM40" s="18" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="41" spans="23:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W41" s="6" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="42" spans="23:39" s="18" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W42" s="18" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="43" spans="23:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W43" s="6" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="44" spans="23:39" s="18" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W44" s="18" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="45" spans="23:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W45" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="46" spans="23:39" s="18" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W46" s="18" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="47" spans="23:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W47" s="6" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="48" spans="23:39" s="18" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W48" s="18" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
   </sheetData>
@@ -45257,7 +45257,7 @@
         <v>581</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="V24" s="2"/>
       <c r="W24" s="4"/>
